--- a/project/cascade_belarus.xlsx
+++ b/project/cascade_belarus.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjarvis/git/tb-ucl/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="-18620" windowWidth="25600" windowHeight="14500" activeTab="4"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="15520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
@@ -19,20 +14,20 @@
     <sheet name="Parameters" sheetId="3" r:id="rId5"/>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="556">
   <si>
     <t>Code Label</t>
   </si>
@@ -1885,6 +1880,9 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>fg</t>
   </si>
 </sst>
 </file>
@@ -3001,18 +2999,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>338</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3024,7 +3027,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
@@ -3034,7 +3037,7 @@
     <col min="6" max="7" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3057,7 +3060,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3068,7 +3071,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -3090,7 +3093,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>276</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>277</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -3156,7 +3159,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>272</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>273</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>194</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>195</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>198</v>
       </c>
@@ -3239,7 +3242,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -3272,7 +3275,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>202</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>274</v>
       </c>
@@ -3297,7 +3300,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>204</v>
       </c>
@@ -3319,7 +3322,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>205</v>
       </c>
@@ -3330,7 +3333,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>206</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>207</v>
       </c>
@@ -3352,7 +3355,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>208</v>
       </c>
@@ -3363,7 +3366,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>209</v>
       </c>
@@ -3374,7 +3377,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>210</v>
       </c>
@@ -3385,7 +3388,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>211</v>
       </c>
@@ -3396,7 +3399,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>132</v>
       </c>
@@ -3407,7 +3410,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -3424,7 +3427,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -3438,7 +3441,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>339</v>
       </c>
@@ -3454,6 +3457,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3465,14 +3473,14 @@
       <selection activeCell="AA38" sqref="AA38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="11" width="5.33203125" customWidth="1"/>
     <col min="12" max="12" width="5.33203125" style="2" customWidth="1"/>
     <col min="13" max="35" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>339</v>
@@ -3577,7 +3585,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35">
       <c r="A2" s="3" t="s">
         <v>339</v>
       </c>
@@ -3620,7 +3628,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3665,7 +3673,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3708,7 +3716,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35">
       <c r="A5" s="25" t="s">
         <v>275</v>
       </c>
@@ -3755,7 +3763,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35">
       <c r="A6" s="24" t="s">
         <v>276</v>
       </c>
@@ -3802,7 +3810,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35">
       <c r="A7" s="30" t="s">
         <v>277</v>
       </c>
@@ -3847,7 +3855,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35">
       <c r="A8" s="25" t="s">
         <v>278</v>
       </c>
@@ -3892,7 +3900,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35">
       <c r="A9" s="24" t="s">
         <v>279</v>
       </c>
@@ -3937,7 +3945,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35">
       <c r="A10" s="30" t="s">
         <v>280</v>
       </c>
@@ -3982,7 +3990,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35">
       <c r="A11" s="3" t="s">
         <v>131</v>
       </c>
@@ -4025,7 +4033,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
         <v>272</v>
       </c>
@@ -4068,7 +4076,7 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="22"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35">
       <c r="A13" s="4" t="s">
         <v>273</v>
       </c>
@@ -4113,7 +4121,7 @@
       <c r="AH13" s="10"/>
       <c r="AI13" s="11"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35">
       <c r="A14" s="4" t="s">
         <v>194</v>
       </c>
@@ -4160,7 +4168,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35">
       <c r="A15" s="4" t="s">
         <v>195</v>
       </c>
@@ -4207,7 +4215,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35">
       <c r="A16" s="4" t="s">
         <v>196</v>
       </c>
@@ -4256,7 +4264,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35">
       <c r="A17" s="4" t="s">
         <v>197</v>
       </c>
@@ -4303,7 +4311,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35">
       <c r="A18" s="4" t="s">
         <v>198</v>
       </c>
@@ -4350,7 +4358,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35">
       <c r="A19" s="4" t="s">
         <v>199</v>
       </c>
@@ -4399,7 +4407,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35">
       <c r="A20" s="4" t="s">
         <v>200</v>
       </c>
@@ -4446,7 +4454,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35">
       <c r="A21" s="4" t="s">
         <v>201</v>
       </c>
@@ -4493,7 +4501,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35">
       <c r="A22" s="4" t="s">
         <v>202</v>
       </c>
@@ -4540,7 +4548,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35">
       <c r="A23" s="5" t="s">
         <v>274</v>
       </c>
@@ -4585,7 +4593,7 @@
       <c r="AH23" s="7"/>
       <c r="AI23" s="8"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35">
       <c r="A24" s="5" t="s">
         <v>203</v>
       </c>
@@ -4632,7 +4640,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35">
       <c r="A25" s="5" t="s">
         <v>204</v>
       </c>
@@ -4679,7 +4687,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35">
       <c r="A26" s="5" t="s">
         <v>205</v>
       </c>
@@ -4728,7 +4736,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35">
       <c r="A27" s="5" t="s">
         <v>206</v>
       </c>
@@ -4775,7 +4783,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35">
       <c r="A28" s="5" t="s">
         <v>207</v>
       </c>
@@ -4822,7 +4830,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35">
       <c r="A29" s="5" t="s">
         <v>208</v>
       </c>
@@ -4871,7 +4879,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35">
       <c r="A30" s="5" t="s">
         <v>209</v>
       </c>
@@ -4918,7 +4926,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35">
       <c r="A31" s="5" t="s">
         <v>210</v>
       </c>
@@ -4965,7 +4973,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35">
       <c r="A32" s="5" t="s">
         <v>211</v>
       </c>
@@ -5012,7 +5020,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35">
       <c r="A33" s="4" t="s">
         <v>132</v>
       </c>
@@ -5055,7 +5063,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35">
       <c r="A34" s="4" t="s">
         <v>87</v>
       </c>
@@ -5094,7 +5102,7 @@
       <c r="AH34" s="10"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35">
       <c r="A35" s="4" t="s">
         <v>88</v>
       </c>
@@ -5136,6 +5144,11 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5147,7 +5160,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="56.6640625" customWidth="1"/>
@@ -5172,7 +5185,7 @@
     <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5204,7 +5217,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -5233,7 +5246,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>212</v>
       </c>
@@ -5256,7 +5269,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -5279,7 +5292,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -5302,7 +5315,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>241</v>
       </c>
@@ -5325,7 +5338,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>242</v>
       </c>
@@ -5348,7 +5361,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>243</v>
       </c>
@@ -5371,7 +5384,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>215</v>
       </c>
@@ -5409,7 +5422,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>244</v>
       </c>
@@ -5447,7 +5460,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -5470,7 +5483,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -5508,7 +5521,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -5531,7 +5544,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -5557,7 +5570,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -5583,7 +5596,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>218</v>
       </c>
@@ -5609,7 +5622,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>245</v>
       </c>
@@ -5635,7 +5648,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>246</v>
       </c>
@@ -5662,7 +5675,7 @@
       </c>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>247</v>
       </c>
@@ -5688,7 +5701,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>219</v>
       </c>
@@ -5721,7 +5734,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>248</v>
       </c>
@@ -5750,7 +5763,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -5773,7 +5786,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>414</v>
       </c>
@@ -5796,7 +5809,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>415</v>
       </c>
@@ -5819,7 +5832,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>410</v>
       </c>
@@ -5836,7 +5849,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>411</v>
       </c>
@@ -5853,7 +5866,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>413</v>
       </c>
@@ -5873,7 +5886,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>418</v>
       </c>
@@ -5899,7 +5912,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>416</v>
       </c>
@@ -5922,7 +5935,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>417</v>
       </c>
@@ -5948,7 +5961,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>464</v>
       </c>
@@ -5968,7 +5981,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>477</v>
       </c>
@@ -5985,7 +5998,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>478</v>
       </c>
@@ -6002,7 +6015,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>479</v>
       </c>
@@ -6019,7 +6032,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>480</v>
       </c>
@@ -6036,7 +6049,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>481</v>
       </c>
@@ -6053,7 +6066,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>482</v>
       </c>
@@ -6070,7 +6083,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>466</v>
       </c>
@@ -6093,7 +6106,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>465</v>
       </c>
@@ -6116,7 +6129,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>467</v>
       </c>
@@ -6139,7 +6152,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>487</v>
       </c>
@@ -6150,7 +6163,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>488</v>
       </c>
@@ -6161,7 +6174,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>489</v>
       </c>
@@ -6172,7 +6185,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>490</v>
       </c>
@@ -6189,7 +6202,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>491</v>
       </c>
@@ -6206,7 +6219,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>492</v>
       </c>
@@ -6223,7 +6236,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>493</v>
       </c>
@@ -6240,7 +6253,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>494</v>
       </c>
@@ -6257,7 +6270,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>495</v>
       </c>
@@ -6274,7 +6287,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>496</v>
       </c>
@@ -6291,7 +6304,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>497</v>
       </c>
@@ -6308,7 +6321,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>498</v>
       </c>
@@ -6327,18 +6340,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -6351,7 +6369,7 @@
     <col min="9" max="9" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6380,7 +6398,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>343</v>
       </c>
@@ -6403,7 +6421,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -6426,7 +6444,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="42">
       <c r="A4" t="s">
         <v>358</v>
       </c>
@@ -6450,7 +6468,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="70">
       <c r="A5" s="56" t="s">
         <v>406</v>
       </c>
@@ -6471,8 +6489,11 @@
       <c r="I5" s="58" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="56" t="s">
         <v>407</v>
       </c>
@@ -6494,7 +6515,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="28">
       <c r="A7" t="s">
         <v>366</v>
       </c>
@@ -6515,7 +6536,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>367</v>
       </c>
@@ -6536,7 +6557,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="28">
       <c r="A9" t="s">
         <v>368</v>
       </c>
@@ -6557,7 +6578,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>392</v>
       </c>
@@ -6578,7 +6599,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="28">
       <c r="A11" t="s">
         <v>372</v>
       </c>
@@ -6599,7 +6620,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="16" customHeight="1">
       <c r="A12" t="s">
         <v>375</v>
       </c>
@@ -6620,7 +6641,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="16" customHeight="1">
       <c r="A13" t="s">
         <v>397</v>
       </c>
@@ -6642,7 +6663,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="16" customHeight="1">
       <c r="A14" t="s">
         <v>398</v>
       </c>
@@ -6666,7 +6687,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="16" customHeight="1">
       <c r="A15" t="s">
         <v>399</v>
       </c>
@@ -6690,7 +6711,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>381</v>
       </c>
@@ -6714,7 +6735,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -6730,7 +6751,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>221</v>
       </c>
@@ -6746,7 +6767,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -6762,7 +6783,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>249</v>
       </c>
@@ -6778,7 +6799,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>250</v>
       </c>
@@ -6794,7 +6815,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -6810,7 +6831,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>360</v>
       </c>
@@ -6825,7 +6846,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -6843,7 +6864,7 @@
       </c>
       <c r="H24" s="23"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -6860,7 +6881,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -6877,7 +6898,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -6894,7 +6915,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>291</v>
       </c>
@@ -6912,7 +6933,7 @@
       </c>
       <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>301</v>
       </c>
@@ -6929,7 +6950,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>302</v>
       </c>
@@ -6946,7 +6967,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -6963,7 +6984,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>294</v>
       </c>
@@ -6980,7 +7001,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>304</v>
       </c>
@@ -6997,7 +7018,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>305</v>
       </c>
@@ -7014,7 +7035,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>306</v>
       </c>
@@ -7031,7 +7052,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>314</v>
       </c>
@@ -7049,7 +7070,7 @@
       </c>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>315</v>
       </c>
@@ -7066,7 +7087,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>290</v>
       </c>
@@ -7083,7 +7104,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>292</v>
       </c>
@@ -7100,7 +7121,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>293</v>
       </c>
@@ -7117,7 +7138,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>295</v>
       </c>
@@ -7134,7 +7155,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>223</v>
       </c>
@@ -7151,7 +7172,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>252</v>
       </c>
@@ -7168,7 +7189,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>224</v>
       </c>
@@ -7185,7 +7206,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>225</v>
       </c>
@@ -7202,7 +7223,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>226</v>
       </c>
@@ -7219,7 +7240,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -7242,7 +7263,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>228</v>
       </c>
@@ -7265,7 +7286,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>229</v>
       </c>
@@ -7288,7 +7309,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>230</v>
       </c>
@@ -7311,7 +7332,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>231</v>
       </c>
@@ -7332,7 +7353,7 @@
       </c>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>232</v>
       </c>
@@ -7355,7 +7376,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -7378,7 +7399,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>234</v>
       </c>
@@ -7401,7 +7422,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>235</v>
       </c>
@@ -7424,7 +7445,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>236</v>
       </c>
@@ -7445,7 +7466,7 @@
       </c>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>237</v>
       </c>
@@ -7469,7 +7490,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>238</v>
       </c>
@@ -7492,7 +7513,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>239</v>
       </c>
@@ -7515,7 +7536,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>240</v>
       </c>
@@ -7538,7 +7559,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>456</v>
       </c>
@@ -7558,7 +7579,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>457</v>
       </c>
@@ -7579,7 +7600,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>458</v>
       </c>
@@ -7599,7 +7620,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>536</v>
       </c>
@@ -7616,7 +7637,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>254</v>
       </c>
@@ -7631,7 +7652,7 @@
       </c>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>255</v>
       </c>
@@ -7646,7 +7667,7 @@
       </c>
       <c r="I66" s="23"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>256</v>
       </c>
@@ -7661,7 +7682,7 @@
       </c>
       <c r="I67" s="23"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>257</v>
       </c>
@@ -7684,7 +7705,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>258</v>
       </c>
@@ -7707,7 +7728,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>259</v>
       </c>
@@ -7730,7 +7751,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>260</v>
       </c>
@@ -7751,7 +7772,7 @@
       </c>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>261</v>
       </c>
@@ -7772,7 +7793,7 @@
       </c>
       <c r="I72" s="23"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>263</v>
       </c>
@@ -7795,7 +7816,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>264</v>
       </c>
@@ -7818,7 +7839,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>265</v>
       </c>
@@ -7841,7 +7862,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>266</v>
       </c>
@@ -7862,7 +7883,7 @@
       </c>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>267</v>
       </c>
@@ -7883,7 +7904,7 @@
       </c>
       <c r="I77" s="23"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>268</v>
       </c>
@@ -7906,7 +7927,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>269</v>
       </c>
@@ -7929,7 +7950,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>270</v>
       </c>
@@ -7952,7 +7973,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>271</v>
       </c>
@@ -7975,7 +7996,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>538</v>
       </c>
@@ -7995,7 +8016,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>459</v>
       </c>
@@ -8013,7 +8034,7 @@
       </c>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>460</v>
       </c>
@@ -8030,7 +8051,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>461</v>
       </c>
@@ -8047,7 +8068,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -8069,7 +8090,7 @@
       </c>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>439</v>
       </c>
@@ -8090,7 +8111,7 @@
       </c>
       <c r="I87" s="44"/>
     </row>
-    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="42">
       <c r="A88" t="s">
         <v>436</v>
       </c>
@@ -8113,7 +8134,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>437</v>
       </c>
@@ -8137,7 +8158,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="56">
       <c r="A90" t="s">
         <v>438</v>
       </c>
@@ -8160,7 +8181,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="56">
       <c r="A91" t="s">
         <v>441</v>
       </c>
@@ -8183,7 +8204,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>440</v>
       </c>
@@ -8204,18 +8225,22 @@
       </c>
       <c r="I92" s="61"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="I93" s="62" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="I94" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8227,13 +8252,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
         <v>135</v>
       </c>
@@ -8241,7 +8266,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>137</v>
       </c>
@@ -8249,7 +8274,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>346</v>
       </c>
@@ -8257,7 +8282,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>508</v>
       </c>
@@ -8265,7 +8290,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>138</v>
       </c>
@@ -8273,7 +8298,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>347</v>
       </c>
@@ -8281,7 +8306,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>140</v>
       </c>
@@ -8289,7 +8314,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>348</v>
       </c>
@@ -8297,7 +8322,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>462</v>
       </c>
@@ -8305,7 +8330,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>426</v>
       </c>
@@ -8315,5 +8340,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/project/cascade_belarus.xlsx
+++ b/project/cascade_belarus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="15520" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="555">
   <si>
     <t>Code Label</t>
   </si>
@@ -1880,9 +1880,6 @@
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>fg</t>
   </si>
 </sst>
 </file>
@@ -6350,10 +6347,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6369,7 +6366,7 @@
     <col min="9" max="9" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6398,7 +6395,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>343</v>
       </c>
@@ -6421,7 +6418,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -6444,7 +6441,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="42">
+    <row r="4" spans="1:9" ht="42">
       <c r="A4" t="s">
         <v>358</v>
       </c>
@@ -6468,7 +6465,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="70">
+    <row r="5" spans="1:9" ht="70">
       <c r="A5" s="56" t="s">
         <v>406</v>
       </c>
@@ -6489,11 +6486,8 @@
       <c r="I5" s="58" t="s">
         <v>546</v>
       </c>
-      <c r="L5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="56" t="s">
         <v>407</v>
       </c>
@@ -6515,7 +6509,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28">
+    <row r="7" spans="1:9" ht="28">
       <c r="A7" t="s">
         <v>366</v>
       </c>
@@ -6536,7 +6530,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>367</v>
       </c>
@@ -6557,7 +6551,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28">
+    <row r="9" spans="1:9" ht="28">
       <c r="A9" t="s">
         <v>368</v>
       </c>
@@ -6578,7 +6572,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>392</v>
       </c>
@@ -6599,7 +6593,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="28">
+    <row r="11" spans="1:9" ht="28">
       <c r="A11" t="s">
         <v>372</v>
       </c>
@@ -6620,7 +6614,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" customHeight="1">
+    <row r="12" spans="1:9" ht="16" customHeight="1">
       <c r="A12" t="s">
         <v>375</v>
       </c>
@@ -6641,7 +6635,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" customHeight="1">
+    <row r="13" spans="1:9" ht="16" customHeight="1">
       <c r="A13" t="s">
         <v>397</v>
       </c>
@@ -6663,7 +6657,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16" customHeight="1">
+    <row r="14" spans="1:9" ht="16" customHeight="1">
       <c r="A14" t="s">
         <v>398</v>
       </c>
@@ -6687,7 +6681,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" customHeight="1">
+    <row r="15" spans="1:9" ht="16" customHeight="1">
       <c r="A15" t="s">
         <v>399</v>
       </c>
@@ -6711,7 +6705,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>381</v>
       </c>

--- a/project/cascade_belarus.xlsx
+++ b/project/cascade_belarus.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="552">
   <si>
     <t>Code Label</t>
   </si>
@@ -1211,9 +1211,6 @@
     <t>r: treatment rate of latent infected</t>
   </si>
   <si>
-    <t>phi4</t>
-  </si>
-  <si>
     <t>phi1</t>
   </si>
   <si>
@@ -1322,13 +1319,7 @@
     <t>(1-p_act_early)*phi_early</t>
   </si>
   <si>
-    <t>(1-p_act_early)*phi3</t>
-  </si>
-  <si>
     <t>p_act_early*phi_early</t>
-  </si>
-  <si>
-    <t>p_act_early*phi3</t>
   </si>
   <si>
     <t>kappa-tilde: natural recovery rate</t>
@@ -4159,7 +4150,7 @@
         <v>353</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AI14" s="11" t="s">
         <v>91</v>
@@ -4206,7 +4197,7 @@
         <v>353</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AI15" s="11" t="s">
         <v>91</v>
@@ -4302,7 +4293,7 @@
         <v>354</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>91</v>
@@ -4349,7 +4340,7 @@
         <v>354</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AI18" s="11" t="s">
         <v>91</v>
@@ -4445,7 +4436,7 @@
         <v>355</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AI20" s="11" t="s">
         <v>91</v>
@@ -4492,7 +4483,7 @@
         <v>355</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AI21" s="11" t="s">
         <v>91</v>
@@ -4539,7 +4530,7 @@
         <v>39</v>
       </c>
       <c r="AH22" s="13" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AI22" s="14" t="s">
         <v>91</v>
@@ -4628,10 +4619,10 @@
       <c r="AE24" s="10"/>
       <c r="AF24" s="11"/>
       <c r="AG24" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AH24" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AI24" s="11" t="s">
         <v>91</v>
@@ -4675,10 +4666,10 @@
       <c r="AE25" s="10"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AH25" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AI25" s="11" t="s">
         <v>91</v>
@@ -4727,7 +4718,7 @@
         <v>40</v>
       </c>
       <c r="AH26" s="10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AI26" s="11" t="s">
         <v>91</v>
@@ -4774,7 +4765,7 @@
         <v>356</v>
       </c>
       <c r="AH27" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AI27" s="11" t="s">
         <v>91</v>
@@ -4821,7 +4812,7 @@
         <v>356</v>
       </c>
       <c r="AH28" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AI28" s="11" t="s">
         <v>91</v>
@@ -4870,7 +4861,7 @@
         <v>41</v>
       </c>
       <c r="AH29" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AI29" s="11" t="s">
         <v>91</v>
@@ -4917,7 +4908,7 @@
         <v>357</v>
       </c>
       <c r="AH30" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AI30" s="11" t="s">
         <v>91</v>
@@ -4964,7 +4955,7 @@
         <v>357</v>
       </c>
       <c r="AH31" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AI31" s="11" t="s">
         <v>91</v>
@@ -5011,7 +5002,7 @@
         <v>42</v>
       </c>
       <c r="AH32" s="13" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AI32" s="14" t="s">
         <v>91</v>
@@ -5199,7 +5190,7 @@
         <v>57</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>103</v>
@@ -5251,13 +5242,13 @@
         <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J3" t="s">
         <v>194</v>
@@ -5274,13 +5265,13 @@
         <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J4" t="s">
         <v>197</v>
@@ -5297,13 +5288,13 @@
         <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J5" t="s">
         <v>200</v>
@@ -5320,13 +5311,13 @@
         <v>164</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D6" s="2">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J6" t="s">
         <v>203</v>
@@ -5343,13 +5334,13 @@
         <v>165</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D7" s="2">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J7" t="s">
         <v>206</v>
@@ -5366,13 +5357,13 @@
         <v>166</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D8" s="2">
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J8" t="s">
         <v>209</v>
@@ -5389,13 +5380,13 @@
         <v>188</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J9" t="s">
         <v>273</v>
@@ -5427,13 +5418,13 @@
         <v>190</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J10" t="s">
         <v>274</v>
@@ -5462,10 +5453,10 @@
         <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -5526,7 +5517,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>93</v>
@@ -5555,7 +5546,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>93</v>
@@ -5581,7 +5572,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>93</v>
@@ -5607,7 +5598,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>93</v>
@@ -5633,7 +5624,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>93</v>
@@ -5659,7 +5650,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>93</v>
@@ -5686,7 +5677,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>93</v>
@@ -5716,7 +5707,7 @@
         <v>0.01</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>93</v>
@@ -5745,7 +5736,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>93</v>
@@ -5785,16 +5776,16 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D23" s="2">
         <v>-1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J23" t="s">
         <v>205</v>
@@ -5808,16 +5799,16 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D24" s="2">
         <v>-1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J24" t="s">
         <v>196</v>
@@ -5831,13 +5822,13 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J25" t="s">
         <v>277</v>
@@ -5848,47 +5839,47 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J26" t="s">
+        <v>413</v>
+      </c>
+      <c r="K26" t="s">
         <v>414</v>
-      </c>
-      <c r="K26" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D27" s="2">
         <v>-1</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J27" t="s">
+        <v>409</v>
+      </c>
+      <c r="K27" t="s">
         <v>410</v>
-      </c>
-      <c r="K27" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
+        <v>417</v>
+      </c>
+      <c r="B28" t="s">
         <v>418</v>
-      </c>
-      <c r="B28" t="s">
-        <v>419</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>348</v>
@@ -5897,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>93</v>
@@ -5906,21 +5897,21 @@
         <v>98</v>
       </c>
       <c r="J28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>348</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>93</v>
@@ -5929,15 +5920,15 @@
         <v>98</v>
       </c>
       <c r="J29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>348</v>
@@ -5946,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>93</v>
@@ -5955,15 +5946,15 @@
         <v>98</v>
       </c>
       <c r="J30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>347</v>
@@ -5972,7 +5963,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J31" t="s">
         <v>87</v>
@@ -5980,10 +5971,10 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B32" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>347</v>
@@ -5992,15 +5983,15 @@
         <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B33" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>347</v>
@@ -6009,15 +6000,15 @@
         <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B34" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>347</v>
@@ -6026,15 +6017,15 @@
         <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B35" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>347</v>
@@ -6043,15 +6034,15 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B36" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>347</v>
@@ -6060,15 +6051,15 @@
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B37" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>347</v>
@@ -6077,15 +6068,15 @@
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B38" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>347</v>
@@ -6094,21 +6085,21 @@
         <v>4</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J38" t="s">
+        <v>474</v>
+      </c>
+      <c r="K38" t="s">
         <v>477</v>
-      </c>
-      <c r="K38" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B39" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>347</v>
@@ -6117,21 +6108,21 @@
         <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J39" t="s">
+        <v>475</v>
+      </c>
+      <c r="K39" t="s">
         <v>478</v>
-      </c>
-      <c r="K39" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B40" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>347</v>
@@ -6140,54 +6131,54 @@
         <v>6</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J40" t="s">
+        <v>476</v>
+      </c>
+      <c r="K40" t="s">
         <v>479</v>
-      </c>
-      <c r="K40" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B41" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B42" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B43" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B44" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>346</v>
@@ -6196,15 +6187,15 @@
         <v>3</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B45" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>346</v>
@@ -6213,15 +6204,15 @@
         <v>4</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B46" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>346</v>
@@ -6230,15 +6221,15 @@
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B47" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>346</v>
@@ -6247,15 +6238,15 @@
         <v>7</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B48" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>346</v>
@@ -6264,15 +6255,15 @@
         <v>8</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B49" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>346</v>
@@ -6281,15 +6272,15 @@
         <v>9</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B50" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>346</v>
@@ -6298,15 +6289,15 @@
         <v>2</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B51" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>346</v>
@@ -6315,15 +6306,15 @@
         <v>6</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B52" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>346</v>
@@ -6332,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -6349,8 +6340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6392,7 +6383,7 @@
         <v>363</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6453,7 +6444,7 @@
         <v>0.22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -6462,51 +6453,51 @@
         <v>365</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="70">
       <c r="A5" s="56" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="56" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D5" s="51"/>
       <c r="E5" s="57" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F5" s="57">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="56" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B6" s="57"/>
       <c r="C6" s="56" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D6" s="51"/>
       <c r="E6" s="57" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F6" s="57">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28">
@@ -6521,13 +6512,13 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6542,13 +6533,13 @@
         <v>0.5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28">
@@ -6563,13 +6554,13 @@
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I9" s="54" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6584,13 +6575,13 @@
         <v>1E-3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28">
@@ -6605,13 +6596,13 @@
         <v>0.09</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16" customHeight="1">
@@ -6626,18 +6617,18 @@
         <v>0.115</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16" customHeight="1">
       <c r="A13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s">
@@ -6654,12 +6645,12 @@
         <v>377</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16" customHeight="1">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s">
@@ -6678,12 +6669,12 @@
         <v>379</v>
       </c>
       <c r="I14" s="53" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16" customHeight="1">
       <c r="A15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s">
@@ -6702,7 +6693,7 @@
         <v>380</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6726,7 +6717,7 @@
         <v>393</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6739,10 +6730,10 @@
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H17" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6755,10 +6746,10 @@
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H18" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6771,10 +6762,10 @@
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H19" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6787,10 +6778,10 @@
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H20" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6803,10 +6794,10 @@
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H21" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6819,10 +6810,10 @@
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H22" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6889,7 +6880,7 @@
         <v>-1</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6906,7 +6897,7 @@
         <v>-1</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6923,7 +6914,7 @@
         <v>-1</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H28" s="23"/>
     </row>
@@ -6958,7 +6949,7 @@
         <v>-1</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6975,7 +6966,7 @@
         <v>-1</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6992,7 +6983,7 @@
         <v>-1</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -7026,7 +7017,7 @@
         <v>-1</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -7043,7 +7034,7 @@
         <v>-1</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -7060,7 +7051,7 @@
         <v>-1</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H36" s="23"/>
     </row>
@@ -7078,7 +7069,7 @@
         <v>-1</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -7095,7 +7086,7 @@
         <v>-1</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -7112,7 +7103,7 @@
         <v>-1</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -7146,7 +7137,7 @@
         <v>-1</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -7248,13 +7239,13 @@
         <v>0.9</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H47" t="s">
         <v>385</v>
       </c>
       <c r="I47" s="40" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -7271,13 +7262,13 @@
         <v>0.91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H48" t="s">
         <v>386</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -7294,13 +7285,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H49" t="s">
         <v>387</v>
       </c>
       <c r="I49" s="40" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -7317,13 +7308,13 @@
         <v>0.85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H50" t="s">
         <v>388</v>
       </c>
       <c r="I50" s="40" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -7340,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H51" t="s">
         <v>389</v>
@@ -7361,13 +7352,13 @@
         <v>0.9</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H52" t="s">
         <v>385</v>
       </c>
       <c r="I52" s="40" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7384,13 +7375,13 @@
         <v>0.91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H53" t="s">
         <v>386</v>
       </c>
       <c r="I53" s="40" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -7407,13 +7398,13 @@
         <v>0.34</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H54" t="s">
         <v>387</v>
       </c>
       <c r="I54" s="40" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -7430,13 +7421,13 @@
         <v>0.5</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H55" t="s">
         <v>388</v>
       </c>
       <c r="I55" s="40" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -7453,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H56" t="s">
         <v>389</v>
@@ -7474,14 +7465,14 @@
         <v>0.9</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F57" s="40"/>
       <c r="H57" t="s">
         <v>385</v>
       </c>
       <c r="I57" s="40" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -7498,13 +7489,13 @@
         <v>0.91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H58" t="s">
         <v>386</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -7521,13 +7512,13 @@
         <v>0.34</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H59" t="s">
         <v>387</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -7544,24 +7535,24 @@
         <v>0.5</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H60" t="s">
         <v>388</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D61" s="49">
         <v>0.06</v>
@@ -7570,18 +7561,18 @@
         <v>362</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D62" s="49">
         <v>0.11</v>
@@ -7591,18 +7582,18 @@
         <v>362</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C63" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D63" s="49">
         <v>0.11</v>
@@ -7611,24 +7602,24 @@
         <v>362</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D64" s="50">
         <v>0.7</v>
       </c>
       <c r="I64" s="48" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -7690,13 +7681,13 @@
         <v>0.9</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H68" t="s">
         <v>385</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -7713,13 +7704,13 @@
         <v>0.91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H69" t="s">
         <v>386</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -7736,13 +7727,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H70" t="s">
         <v>387</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -7759,7 +7750,7 @@
         <v>0.85</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H71" t="s">
         <v>388</v>
@@ -7780,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H72" t="s">
         <v>389</v>
@@ -7801,13 +7792,13 @@
         <v>0.9</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H73" t="s">
         <v>385</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -7824,13 +7815,13 @@
         <v>0.91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H74" t="s">
         <v>386</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -7847,13 +7838,13 @@
         <v>0.34</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H75" t="s">
         <v>387</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -7870,7 +7861,7 @@
         <v>0.5</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H76" t="s">
         <v>388</v>
@@ -7891,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H77" t="s">
         <v>389</v>
@@ -7912,13 +7903,13 @@
         <v>0.9</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H78" t="s">
         <v>385</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -7935,13 +7926,13 @@
         <v>0.91</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H79" t="s">
         <v>386</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -7958,13 +7949,13 @@
         <v>0.34</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H80" t="s">
         <v>387</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -7981,24 +7972,24 @@
         <v>0.5</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H81" t="s">
         <v>388</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C82" s="56" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D82" s="49">
         <v>0.2</v>
@@ -8007,15 +7998,15 @@
         <v>362</v>
       </c>
       <c r="I82" s="48" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C83" s="56" t="s">
         <v>187</v>
@@ -8030,36 +8021,36 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C84" s="56" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D84" s="49">
         <v>0.11</v>
       </c>
       <c r="I84" s="45" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C85" s="56" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D85" s="49">
         <v>0.11</v>
       </c>
       <c r="I85" s="45" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -8080,148 +8071,148 @@
         <v>2</v>
       </c>
       <c r="H86" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I86" s="23"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>353</v>
       </c>
       <c r="C87" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D87" s="36">
         <v>0.2</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H87" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I87" s="44"/>
     </row>
     <row r="88" spans="1:9" ht="42">
       <c r="A88" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>354</v>
       </c>
       <c r="C88" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D88" s="36">
         <v>0.15</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H88" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I88" s="59" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>355</v>
       </c>
       <c r="C89" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D89" s="36">
         <v>0.15</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F89" s="42"/>
       <c r="H89" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I89" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="56">
       <c r="A90" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C90" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D90" s="36">
         <v>0.2</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H90" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I90" s="58" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="56">
       <c r="A91" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>356</v>
       </c>
       <c r="C91" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D91" s="36">
         <v>0.15</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H91" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I91" s="58" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>357</v>
       </c>
       <c r="C92" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D92" s="36">
         <v>0.15</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H92" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I92" s="61"/>
     </row>
     <row r="93" spans="1:9">
       <c r="I93" s="62" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -8273,15 +8264,15 @@
         <v>346</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8297,7 +8288,7 @@
         <v>347</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8305,7 +8296,7 @@
         <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8313,23 +8304,23 @@
         <v>348</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/project/cascade_belarus.xlsx
+++ b/project/cascade_belarus.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
@@ -14,13 +14,10 @@
     <sheet name="Parameters" sheetId="3" r:id="rId5"/>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -2987,12 +2984,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>338</v>
       </c>
@@ -3015,17 +3012,17 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="8.83203125" style="2"/>
+    <col min="4" max="4" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3048,7 +3045,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3059,7 +3056,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3070,7 +3067,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -3081,7 +3078,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>276</v>
       </c>
@@ -3092,7 +3089,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>277</v>
       </c>
@@ -3103,7 +3100,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -3114,7 +3111,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -3125,7 +3122,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -3136,7 +3133,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -3147,7 +3144,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>272</v>
       </c>
@@ -3161,7 +3158,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>273</v>
       </c>
@@ -3175,7 +3172,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>194</v>
       </c>
@@ -3186,7 +3183,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>195</v>
       </c>
@@ -3197,7 +3194,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -3208,7 +3205,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -3219,7 +3216,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>198</v>
       </c>
@@ -3230,7 +3227,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -3241,7 +3238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -3252,7 +3249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -3263,7 +3260,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>202</v>
       </c>
@@ -3274,7 +3271,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>274</v>
       </c>
@@ -3288,7 +3285,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -3299,7 +3296,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>204</v>
       </c>
@@ -3310,7 +3307,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>205</v>
       </c>
@@ -3321,7 +3318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>206</v>
       </c>
@@ -3332,7 +3329,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>207</v>
       </c>
@@ -3343,7 +3340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>208</v>
       </c>
@@ -3354,7 +3351,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>209</v>
       </c>
@@ -3365,7 +3362,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>210</v>
       </c>
@@ -3376,7 +3373,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>211</v>
       </c>
@@ -3387,7 +3384,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>132</v>
       </c>
@@ -3398,7 +3395,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -3415,7 +3412,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -3429,7 +3426,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>339</v>
       </c>
@@ -3461,14 +3458,14 @@
       <selection activeCell="AA38" sqref="AA38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="11" width="5.33203125" customWidth="1"/>
     <col min="12" max="12" width="5.33203125" style="2" customWidth="1"/>
     <col min="13" max="35" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>339</v>
@@ -3573,7 +3570,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>339</v>
       </c>
@@ -3616,7 +3613,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3661,7 +3658,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3704,7 +3701,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>275</v>
       </c>
@@ -3751,7 +3748,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>276</v>
       </c>
@@ -3798,7 +3795,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>277</v>
       </c>
@@ -3843,7 +3840,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>278</v>
       </c>
@@ -3888,7 +3885,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>279</v>
       </c>
@@ -3933,7 +3930,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>280</v>
       </c>
@@ -3978,7 +3975,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>131</v>
       </c>
@@ -4021,7 +4018,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>272</v>
       </c>
@@ -4064,7 +4061,7 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="22"/>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>273</v>
       </c>
@@ -4109,7 +4106,7 @@
       <c r="AH13" s="10"/>
       <c r="AI13" s="11"/>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>194</v>
       </c>
@@ -4156,7 +4153,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>195</v>
       </c>
@@ -4203,7 +4200,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>196</v>
       </c>
@@ -4252,7 +4249,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>197</v>
       </c>
@@ -4299,7 +4296,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>198</v>
       </c>
@@ -4346,7 +4343,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>199</v>
       </c>
@@ -4395,7 +4392,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>200</v>
       </c>
@@ -4442,7 +4439,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>201</v>
       </c>
@@ -4489,7 +4486,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>202</v>
       </c>
@@ -4536,7 +4533,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>274</v>
       </c>
@@ -4581,7 +4578,7 @@
       <c r="AH23" s="7"/>
       <c r="AI23" s="8"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>203</v>
       </c>
@@ -4628,7 +4625,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>204</v>
       </c>
@@ -4675,7 +4672,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>205</v>
       </c>
@@ -4724,7 +4721,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>206</v>
       </c>
@@ -4771,7 +4768,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>207</v>
       </c>
@@ -4818,7 +4815,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>208</v>
       </c>
@@ -4867,7 +4864,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>209</v>
       </c>
@@ -4914,7 +4911,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>210</v>
       </c>
@@ -4961,7 +4958,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>211</v>
       </c>
@@ -5008,7 +5005,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>132</v>
       </c>
@@ -5051,7 +5048,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>87</v>
       </c>
@@ -5090,7 +5087,7 @@
       <c r="AH34" s="10"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>88</v>
       </c>
@@ -5148,32 +5145,32 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="56.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="16" width="8.83203125" customWidth="1"/>
+    <col min="12" max="16" width="8.77734375" customWidth="1"/>
     <col min="17" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5205,7 +5202,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -5234,7 +5231,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>212</v>
       </c>
@@ -5257,7 +5254,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -5280,7 +5277,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -5303,7 +5300,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>241</v>
       </c>
@@ -5326,7 +5323,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>242</v>
       </c>
@@ -5349,7 +5346,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>243</v>
       </c>
@@ -5372,7 +5369,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>215</v>
       </c>
@@ -5410,7 +5407,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>244</v>
       </c>
@@ -5448,7 +5445,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -5471,7 +5468,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -5509,7 +5506,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -5532,7 +5529,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -5558,7 +5555,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -5584,7 +5581,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>218</v>
       </c>
@@ -5610,7 +5607,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>245</v>
       </c>
@@ -5636,7 +5633,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>246</v>
       </c>
@@ -5663,7 +5660,7 @@
       </c>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>247</v>
       </c>
@@ -5689,7 +5686,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>219</v>
       </c>
@@ -5722,7 +5719,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>248</v>
       </c>
@@ -5751,7 +5748,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -5774,7 +5771,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>413</v>
       </c>
@@ -5797,7 +5794,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>414</v>
       </c>
@@ -5820,7 +5817,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>409</v>
       </c>
@@ -5837,7 +5834,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>410</v>
       </c>
@@ -5854,7 +5851,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>412</v>
       </c>
@@ -5874,7 +5871,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>417</v>
       </c>
@@ -5900,7 +5897,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>415</v>
       </c>
@@ -5923,7 +5920,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>416</v>
       </c>
@@ -5949,7 +5946,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>461</v>
       </c>
@@ -5969,7 +5966,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>474</v>
       </c>
@@ -5986,7 +5983,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>475</v>
       </c>
@@ -6003,7 +6000,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>476</v>
       </c>
@@ -6020,7 +6017,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>477</v>
       </c>
@@ -6037,7 +6034,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>478</v>
       </c>
@@ -6054,7 +6051,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>479</v>
       </c>
@@ -6071,7 +6068,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>463</v>
       </c>
@@ -6094,7 +6091,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>462</v>
       </c>
@@ -6117,7 +6114,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>464</v>
       </c>
@@ -6140,7 +6137,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>484</v>
       </c>
@@ -6151,7 +6148,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>485</v>
       </c>
@@ -6162,7 +6159,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>486</v>
       </c>
@@ -6173,7 +6170,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>487</v>
       </c>
@@ -6190,7 +6187,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>488</v>
       </c>
@@ -6207,7 +6204,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>489</v>
       </c>
@@ -6224,7 +6221,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>490</v>
       </c>
@@ -6241,7 +6238,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>491</v>
       </c>
@@ -6258,7 +6255,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>492</v>
       </c>
@@ -6275,7 +6272,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>493</v>
       </c>
@@ -6292,7 +6289,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>494</v>
       </c>
@@ -6309,7 +6306,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>495</v>
       </c>
@@ -6340,24 +6337,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="118.1640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="118.109375" style="23" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
     <col min="9" max="9" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6386,7 +6383,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>343</v>
       </c>
@@ -6409,7 +6406,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -6432,7 +6429,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42">
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>358</v>
       </c>
@@ -6456,7 +6453,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="70">
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>405</v>
       </c>
@@ -6478,7 +6475,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
         <v>406</v>
       </c>
@@ -6500,7 +6497,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28">
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>366</v>
       </c>
@@ -6521,7 +6518,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>367</v>
       </c>
@@ -6542,7 +6539,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>368</v>
       </c>
@@ -6563,7 +6560,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>392</v>
       </c>
@@ -6584,7 +6581,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>372</v>
       </c>
@@ -6605,7 +6602,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" customHeight="1">
+    <row r="12" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>375</v>
       </c>
@@ -6626,7 +6623,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" customHeight="1">
+    <row r="13" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>396</v>
       </c>
@@ -6648,7 +6645,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16" customHeight="1">
+    <row r="14" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -6672,7 +6669,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16" customHeight="1">
+    <row r="15" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>398</v>
       </c>
@@ -6696,7 +6693,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>381</v>
       </c>
@@ -6720,7 +6717,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -6736,7 +6733,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>221</v>
       </c>
@@ -6752,7 +6749,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -6768,7 +6765,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>249</v>
       </c>
@@ -6784,7 +6781,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>250</v>
       </c>
@@ -6800,7 +6797,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -6816,7 +6813,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>360</v>
       </c>
@@ -6831,7 +6828,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -6849,7 +6846,7 @@
       </c>
       <c r="H24" s="23"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -6866,7 +6863,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -6883,7 +6880,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -6900,7 +6897,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>291</v>
       </c>
@@ -6918,7 +6915,7 @@
       </c>
       <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>301</v>
       </c>
@@ -6935,7 +6932,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>302</v>
       </c>
@@ -6952,7 +6949,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -6969,7 +6966,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>294</v>
       </c>
@@ -6986,7 +6983,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>304</v>
       </c>
@@ -7003,7 +7000,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>305</v>
       </c>
@@ -7020,7 +7017,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>306</v>
       </c>
@@ -7037,7 +7034,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>314</v>
       </c>
@@ -7055,7 +7052,7 @@
       </c>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>315</v>
       </c>
@@ -7072,7 +7069,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>290</v>
       </c>
@@ -7089,7 +7086,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>292</v>
       </c>
@@ -7106,7 +7103,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>293</v>
       </c>
@@ -7123,7 +7120,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>295</v>
       </c>
@@ -7140,7 +7137,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>223</v>
       </c>
@@ -7157,7 +7154,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>252</v>
       </c>
@@ -7174,7 +7171,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>224</v>
       </c>
@@ -7191,7 +7188,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>225</v>
       </c>
@@ -7208,7 +7205,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>226</v>
       </c>
@@ -7225,7 +7222,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -7248,7 +7245,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>228</v>
       </c>
@@ -7271,7 +7268,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>229</v>
       </c>
@@ -7294,7 +7291,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>230</v>
       </c>
@@ -7317,7 +7314,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>231</v>
       </c>
@@ -7338,7 +7335,7 @@
       </c>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>232</v>
       </c>
@@ -7361,7 +7358,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -7384,7 +7381,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>234</v>
       </c>
@@ -7407,7 +7404,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>235</v>
       </c>
@@ -7430,7 +7427,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>236</v>
       </c>
@@ -7451,7 +7448,7 @@
       </c>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>237</v>
       </c>
@@ -7475,7 +7472,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>238</v>
       </c>
@@ -7498,7 +7495,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>239</v>
       </c>
@@ -7521,7 +7518,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>240</v>
       </c>
@@ -7544,7 +7541,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>453</v>
       </c>
@@ -7564,7 +7561,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>454</v>
       </c>
@@ -7585,7 +7582,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>455</v>
       </c>
@@ -7605,7 +7602,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>533</v>
       </c>
@@ -7622,7 +7619,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>254</v>
       </c>
@@ -7637,7 +7634,7 @@
       </c>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>255</v>
       </c>
@@ -7652,7 +7649,7 @@
       </c>
       <c r="I66" s="23"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>256</v>
       </c>
@@ -7667,7 +7664,7 @@
       </c>
       <c r="I67" s="23"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>257</v>
       </c>
@@ -7690,7 +7687,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>258</v>
       </c>
@@ -7713,7 +7710,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>259</v>
       </c>
@@ -7736,7 +7733,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>260</v>
       </c>
@@ -7757,7 +7754,7 @@
       </c>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>261</v>
       </c>
@@ -7778,7 +7775,7 @@
       </c>
       <c r="I72" s="23"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>263</v>
       </c>
@@ -7801,7 +7798,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>264</v>
       </c>
@@ -7824,7 +7821,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>265</v>
       </c>
@@ -7847,7 +7844,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>266</v>
       </c>
@@ -7868,7 +7865,7 @@
       </c>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>267</v>
       </c>
@@ -7889,7 +7886,7 @@
       </c>
       <c r="I77" s="23"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>268</v>
       </c>
@@ -7912,7 +7909,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>269</v>
       </c>
@@ -7935,7 +7932,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>270</v>
       </c>
@@ -7958,7 +7955,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>271</v>
       </c>
@@ -7981,7 +7978,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>535</v>
       </c>
@@ -8001,7 +7998,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>456</v>
       </c>
@@ -8019,7 +8016,7 @@
       </c>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>457</v>
       </c>
@@ -8036,7 +8033,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>458</v>
       </c>
@@ -8053,7 +8050,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -8075,7 +8072,7 @@
       </c>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>436</v>
       </c>
@@ -8096,7 +8093,7 @@
       </c>
       <c r="I87" s="44"/>
     </row>
-    <row r="88" spans="1:9" ht="42">
+    <row r="88" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>433</v>
       </c>
@@ -8119,7 +8116,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>434</v>
       </c>
@@ -8143,7 +8140,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="56">
+    <row r="90" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>435</v>
       </c>
@@ -8166,7 +8163,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="56">
+    <row r="91" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>438</v>
       </c>
@@ -8189,7 +8186,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>437</v>
       </c>
@@ -8210,12 +8207,12 @@
       </c>
       <c r="I92" s="61"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I93" s="62" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I94" s="62"/>
     </row>
   </sheetData>
@@ -8237,13 +8234,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>135</v>
       </c>
@@ -8251,7 +8248,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>137</v>
       </c>
@@ -8259,7 +8256,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>346</v>
       </c>
@@ -8267,7 +8264,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>505</v>
       </c>
@@ -8275,7 +8272,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>138</v>
       </c>
@@ -8283,7 +8280,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>347</v>
       </c>
@@ -8291,7 +8288,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>140</v>
       </c>
@@ -8299,7 +8296,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>348</v>
       </c>
@@ -8307,7 +8304,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>459</v>
       </c>
@@ -8315,7 +8312,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>425</v>
       </c>

--- a/project/cascade_belarus.xlsx
+++ b/project/cascade_belarus.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27417"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjarvis/git/tb-ucl/project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="13180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
@@ -14,8 +19,11 @@
     <sheet name="Parameters" sheetId="3" r:id="rId5"/>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="552">
   <si>
     <t>Code Label</t>
   </si>
@@ -1419,24 +1427,6 @@
   </si>
   <si>
     <t>num_xddis</t>
-  </si>
-  <si>
-    <t>Number of SN DS-TB related deaths</t>
-  </si>
-  <si>
-    <t>Number of SN MDR TB-related deaths</t>
-  </si>
-  <si>
-    <t>Number of SN XDR TB-related deaths</t>
-  </si>
-  <si>
-    <t>Number of SP DS-TB related deaths</t>
-  </si>
-  <si>
-    <t>Number of SP MDR TB-related deaths</t>
-  </si>
-  <si>
-    <t>Number of SP XDR TB-related deaths</t>
   </si>
   <si>
     <t>Number of Total DS-TB related deaths</t>
@@ -1868,6 +1858,24 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Percentage of SN DS-TB related deaths</t>
+  </si>
+  <si>
+    <t>Percentage of SN MDR TB-related deaths</t>
+  </si>
+  <si>
+    <t>Percentage of SN XDR TB-related deaths</t>
+  </si>
+  <si>
+    <t>Percentage of SP DS-TB related deaths</t>
+  </si>
+  <si>
+    <t>Percentage of SP MDR TB-related deaths</t>
+  </si>
+  <si>
+    <t>Percentage of SP XDR TB-related deaths</t>
   </si>
 </sst>
 </file>
@@ -2984,23 +2992,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>338</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3012,17 +3015,17 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="8.77734375" style="2"/>
+    <col min="4" max="4" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3056,7 +3059,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3067,7 +3070,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -3078,7 +3081,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>276</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>277</v>
       </c>
@@ -3100,7 +3103,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -3111,7 +3114,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>272</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>273</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>194</v>
       </c>
@@ -3183,7 +3186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>195</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -3205,7 +3208,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -3216,7 +3219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>198</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -3260,7 +3263,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>202</v>
       </c>
@@ -3271,7 +3274,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>274</v>
       </c>
@@ -3285,7 +3288,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -3296,7 +3299,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>204</v>
       </c>
@@ -3307,7 +3310,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>205</v>
       </c>
@@ -3318,7 +3321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>206</v>
       </c>
@@ -3329,7 +3332,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>207</v>
       </c>
@@ -3340,7 +3343,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>208</v>
       </c>
@@ -3351,7 +3354,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>209</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>210</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>211</v>
       </c>
@@ -3384,7 +3387,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>132</v>
       </c>
@@ -3395,7 +3398,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -3426,7 +3429,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>339</v>
       </c>
@@ -3442,11 +3445,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3458,14 +3456,14 @@
       <selection activeCell="AA38" sqref="AA38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="11" width="5.33203125" customWidth="1"/>
     <col min="12" max="12" width="5.33203125" style="2" customWidth="1"/>
     <col min="13" max="35" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>339</v>
@@ -3570,7 +3568,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>339</v>
       </c>
@@ -3613,7 +3611,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3658,7 +3656,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,7 +3699,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>275</v>
       </c>
@@ -3748,7 +3746,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>276</v>
       </c>
@@ -3795,7 +3793,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>277</v>
       </c>
@@ -3840,7 +3838,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>278</v>
       </c>
@@ -3885,7 +3883,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>279</v>
       </c>
@@ -3930,7 +3928,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>280</v>
       </c>
@@ -3975,7 +3973,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>131</v>
       </c>
@@ -4018,7 +4016,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>272</v>
       </c>
@@ -4061,7 +4059,7 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="22"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>273</v>
       </c>
@@ -4106,7 +4104,7 @@
       <c r="AH13" s="10"/>
       <c r="AI13" s="11"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>194</v>
       </c>
@@ -4147,13 +4145,13 @@
         <v>353</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AI14" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>195</v>
       </c>
@@ -4194,13 +4192,13 @@
         <v>353</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AI15" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>196</v>
       </c>
@@ -4249,7 +4247,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>197</v>
       </c>
@@ -4290,13 +4288,13 @@
         <v>354</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>198</v>
       </c>
@@ -4337,13 +4335,13 @@
         <v>354</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AI18" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>199</v>
       </c>
@@ -4392,7 +4390,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>200</v>
       </c>
@@ -4433,13 +4431,13 @@
         <v>355</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AI20" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>201</v>
       </c>
@@ -4480,13 +4478,13 @@
         <v>355</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AI21" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>202</v>
       </c>
@@ -4533,7 +4531,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>274</v>
       </c>
@@ -4578,7 +4576,7 @@
       <c r="AH23" s="7"/>
       <c r="AI23" s="8"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>203</v>
       </c>
@@ -4619,13 +4617,13 @@
         <v>432</v>
       </c>
       <c r="AH24" s="10" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AI24" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>204</v>
       </c>
@@ -4666,13 +4664,13 @@
         <v>432</v>
       </c>
       <c r="AH25" s="10" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AI25" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>205</v>
       </c>
@@ -4721,7 +4719,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>206</v>
       </c>
@@ -4762,13 +4760,13 @@
         <v>356</v>
       </c>
       <c r="AH27" s="10" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AI27" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>207</v>
       </c>
@@ -4809,13 +4807,13 @@
         <v>356</v>
       </c>
       <c r="AH28" s="10" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AI28" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>208</v>
       </c>
@@ -4864,7 +4862,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>209</v>
       </c>
@@ -4905,13 +4903,13 @@
         <v>357</v>
       </c>
       <c r="AH30" s="10" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AI30" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>210</v>
       </c>
@@ -4952,13 +4950,13 @@
         <v>357</v>
       </c>
       <c r="AH31" s="10" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AI31" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>211</v>
       </c>
@@ -5005,7 +5003,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>132</v>
       </c>
@@ -5048,7 +5046,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>87</v>
       </c>
@@ -5087,7 +5085,7 @@
       <c r="AH34" s="10"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>88</v>
       </c>
@@ -5129,11 +5127,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5141,36 +5134,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="56.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="16" width="8.77734375" customWidth="1"/>
+    <col min="12" max="16" width="8.83203125" customWidth="1"/>
     <col min="17" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5187,7 +5180,7 @@
         <v>57</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>103</v>
@@ -5202,7 +5195,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -5231,7 +5224,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>212</v>
       </c>
@@ -5239,13 +5232,13 @@
         <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J3" t="s">
         <v>194</v>
@@ -5254,7 +5247,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -5262,13 +5255,13 @@
         <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J4" t="s">
         <v>197</v>
@@ -5277,7 +5270,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -5285,13 +5278,13 @@
         <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J5" t="s">
         <v>200</v>
@@ -5300,7 +5293,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>241</v>
       </c>
@@ -5308,13 +5301,13 @@
         <v>164</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D6" s="2">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J6" t="s">
         <v>203</v>
@@ -5323,7 +5316,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>242</v>
       </c>
@@ -5331,13 +5324,13 @@
         <v>165</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D7" s="2">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J7" t="s">
         <v>206</v>
@@ -5346,7 +5339,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>243</v>
       </c>
@@ -5354,13 +5347,13 @@
         <v>166</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D8" s="2">
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J8" t="s">
         <v>209</v>
@@ -5369,7 +5362,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>215</v>
       </c>
@@ -5377,13 +5370,13 @@
         <v>188</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J9" t="s">
         <v>273</v>
@@ -5407,7 +5400,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>244</v>
       </c>
@@ -5415,13 +5408,13 @@
         <v>190</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J10" t="s">
         <v>274</v>
@@ -5445,15 +5438,15 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -5468,7 +5461,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -5506,7 +5499,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -5514,7 +5507,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>93</v>
@@ -5529,7 +5522,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -5543,7 +5536,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>93</v>
@@ -5555,7 +5548,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -5569,7 +5562,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>93</v>
@@ -5581,7 +5574,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>218</v>
       </c>
@@ -5595,7 +5588,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>93</v>
@@ -5607,7 +5600,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>245</v>
       </c>
@@ -5621,7 +5614,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>93</v>
@@ -5633,7 +5626,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>246</v>
       </c>
@@ -5647,7 +5640,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>93</v>
@@ -5660,7 +5653,7 @@
       </c>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>247</v>
       </c>
@@ -5674,7 +5667,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>93</v>
@@ -5686,7 +5679,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>219</v>
       </c>
@@ -5704,7 +5697,7 @@
         <v>0.01</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>93</v>
@@ -5719,7 +5712,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>248</v>
       </c>
@@ -5733,7 +5726,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>93</v>
@@ -5748,7 +5741,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -5771,7 +5764,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>413</v>
       </c>
@@ -5782,7 +5775,7 @@
         <v>-1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J23" t="s">
         <v>205</v>
@@ -5794,7 +5787,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>414</v>
       </c>
@@ -5805,7 +5798,7 @@
         <v>-1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J24" t="s">
         <v>196</v>
@@ -5817,7 +5810,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>409</v>
       </c>
@@ -5825,7 +5818,7 @@
         <v>422</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J25" t="s">
         <v>277</v>
@@ -5834,7 +5827,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>410</v>
       </c>
@@ -5842,7 +5835,7 @@
         <v>424</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J26" t="s">
         <v>413</v>
@@ -5851,7 +5844,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>412</v>
       </c>
@@ -5862,7 +5855,7 @@
         <v>-1</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J27" t="s">
         <v>409</v>
@@ -5871,7 +5864,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>417</v>
       </c>
@@ -5885,7 +5878,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>93</v>
@@ -5897,7 +5890,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>415</v>
       </c>
@@ -5908,7 +5901,7 @@
         <v>348</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>93</v>
@@ -5920,7 +5913,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>416</v>
       </c>
@@ -5934,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>93</v>
@@ -5946,7 +5939,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>461</v>
       </c>
@@ -5960,18 +5953,21 @@
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="J31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B32" t="s">
-        <v>465</v>
+        <v>546</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>347</v>
@@ -5980,15 +5976,24 @@
         <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B33" t="s">
-        <v>466</v>
+        <v>547</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>347</v>
@@ -5997,15 +6002,24 @@
         <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B34" t="s">
-        <v>467</v>
+        <v>548</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>347</v>
@@ -6014,15 +6028,24 @@
         <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" t="s">
+        <v>87</v>
+      </c>
+      <c r="J34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B35" t="s">
-        <v>468</v>
+        <v>549</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>347</v>
@@ -6031,15 +6054,24 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B36" t="s">
-        <v>469</v>
+        <v>550</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>347</v>
@@ -6048,15 +6080,24 @@
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>473</v>
+      </c>
+      <c r="B37" t="s">
         <v>551</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>479</v>
-      </c>
-      <c r="B37" t="s">
-        <v>470</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>347</v>
@@ -6065,15 +6106,24 @@
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" t="s">
+        <v>87</v>
+      </c>
+      <c r="J37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>463</v>
       </c>
       <c r="B38" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>347</v>
@@ -6082,21 +6132,24 @@
         <v>4</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
+      </c>
+      <c r="I38" t="s">
+        <v>87</v>
       </c>
       <c r="J38" t="s">
-        <v>474</v>
+        <v>212</v>
       </c>
       <c r="K38" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>462</v>
       </c>
       <c r="B39" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>347</v>
@@ -6105,21 +6158,24 @@
         <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
+      </c>
+      <c r="I39" t="s">
+        <v>87</v>
       </c>
       <c r="J39" t="s">
-        <v>475</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>464</v>
       </c>
       <c r="B40" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>347</v>
@@ -6128,54 +6184,72 @@
         <v>6</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
+      </c>
+      <c r="I40" t="s">
+        <v>87</v>
       </c>
       <c r="J40" t="s">
+        <v>214</v>
+      </c>
+      <c r="K40" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>478</v>
+      </c>
+      <c r="B41" t="s">
+        <v>475</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="J41" t="s">
+        <v>277</v>
+      </c>
+      <c r="K41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>479</v>
+      </c>
+      <c r="B42" t="s">
         <v>476</v>
       </c>
-      <c r="K40" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>484</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="F42" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="J42" t="s">
+        <v>276</v>
+      </c>
+      <c r="K42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>480</v>
+      </c>
+      <c r="B43" t="s">
+        <v>477</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="J43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>481</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>485</v>
-      </c>
-      <c r="B42" t="s">
-        <v>482</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>486</v>
-      </c>
-      <c r="B43" t="s">
-        <v>483</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>487</v>
-      </c>
       <c r="B44" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>346</v>
@@ -6184,15 +6258,21 @@
         <v>3</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="H44" t="s">
+        <v>195</v>
+      </c>
+      <c r="J44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B45" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>346</v>
@@ -6201,15 +6281,21 @@
         <v>4</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="H45" t="s">
+        <v>198</v>
+      </c>
+      <c r="J45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B46" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>346</v>
@@ -6218,15 +6304,21 @@
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="H46" t="s">
+        <v>201</v>
+      </c>
+      <c r="J46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B47" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>346</v>
@@ -6235,15 +6327,21 @@
         <v>7</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="H47" t="s">
+        <v>204</v>
+      </c>
+      <c r="J47" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B48" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>346</v>
@@ -6252,15 +6350,21 @@
         <v>8</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="H48" t="s">
+        <v>207</v>
+      </c>
+      <c r="J48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B49" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>346</v>
@@ -6269,15 +6373,21 @@
         <v>9</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="H49" t="s">
+        <v>210</v>
+      </c>
+      <c r="J49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B50" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>346</v>
@@ -6286,15 +6396,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="J50" t="s">
+        <v>195</v>
+      </c>
+      <c r="K50" t="s">
+        <v>198</v>
+      </c>
+      <c r="L50" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B51" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>346</v>
@@ -6303,15 +6422,24 @@
         <v>6</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="J51" t="s">
+        <v>204</v>
+      </c>
+      <c r="K51" t="s">
+        <v>207</v>
+      </c>
+      <c r="L51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B52" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>346</v>
@@ -6320,16 +6448,17 @@
         <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
+      </c>
+      <c r="J52" t="s">
+        <v>488</v>
+      </c>
+      <c r="K52" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6337,24 +6466,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="118.109375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="118.1640625" style="23" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
     <col min="9" max="9" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6380,10 +6509,10 @@
         <v>363</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>343</v>
       </c>
@@ -6406,7 +6535,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -6429,7 +6558,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>358</v>
       </c>
@@ -6450,10 +6579,10 @@
         <v>365</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>405</v>
       </c>
@@ -6472,10 +6601,10 @@
         <v>445</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="56" t="s">
         <v>406</v>
       </c>
@@ -6494,10 +6623,10 @@
         <v>446</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>366</v>
       </c>
@@ -6515,10 +6644,10 @@
         <v>401</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>367</v>
       </c>
@@ -6536,10 +6665,10 @@
         <v>402</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>368</v>
       </c>
@@ -6557,10 +6686,10 @@
         <v>403</v>
       </c>
       <c r="I9" s="54" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>392</v>
       </c>
@@ -6578,10 +6707,10 @@
         <v>394</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>372</v>
       </c>
@@ -6599,10 +6728,10 @@
         <v>395</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>375</v>
       </c>
@@ -6620,10 +6749,10 @@
         <v>447</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>396</v>
       </c>
@@ -6642,10 +6771,10 @@
         <v>377</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -6666,10 +6795,10 @@
         <v>379</v>
       </c>
       <c r="I14" s="53" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>398</v>
       </c>
@@ -6690,10 +6819,10 @@
         <v>380</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>381</v>
       </c>
@@ -6714,10 +6843,10 @@
         <v>393</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -6730,10 +6859,10 @@
         <v>425</v>
       </c>
       <c r="H17" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>221</v>
       </c>
@@ -6746,10 +6875,10 @@
         <v>425</v>
       </c>
       <c r="H18" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -6762,10 +6891,10 @@
         <v>425</v>
       </c>
       <c r="H19" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>249</v>
       </c>
@@ -6778,10 +6907,10 @@
         <v>425</v>
       </c>
       <c r="H20" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>250</v>
       </c>
@@ -6794,10 +6923,10 @@
         <v>425</v>
       </c>
       <c r="H21" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -6810,10 +6939,10 @@
         <v>425</v>
       </c>
       <c r="H22" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>360</v>
       </c>
@@ -6828,7 +6957,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -6846,7 +6975,7 @@
       </c>
       <c r="H24" s="23"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -6863,7 +6992,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -6880,7 +7009,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -6897,7 +7026,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>291</v>
       </c>
@@ -6915,7 +7044,7 @@
       </c>
       <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>301</v>
       </c>
@@ -6932,7 +7061,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>302</v>
       </c>
@@ -6949,7 +7078,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -6966,7 +7095,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>294</v>
       </c>
@@ -6983,7 +7112,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>304</v>
       </c>
@@ -7000,7 +7129,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>305</v>
       </c>
@@ -7017,7 +7146,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>306</v>
       </c>
@@ -7034,7 +7163,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>314</v>
       </c>
@@ -7052,7 +7181,7 @@
       </c>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>315</v>
       </c>
@@ -7069,7 +7198,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>290</v>
       </c>
@@ -7086,7 +7215,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>292</v>
       </c>
@@ -7103,7 +7232,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>293</v>
       </c>
@@ -7120,7 +7249,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>295</v>
       </c>
@@ -7137,7 +7266,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>223</v>
       </c>
@@ -7154,7 +7283,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>252</v>
       </c>
@@ -7171,7 +7300,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>224</v>
       </c>
@@ -7188,7 +7317,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>225</v>
       </c>
@@ -7205,7 +7334,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>226</v>
       </c>
@@ -7222,7 +7351,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -7242,10 +7371,10 @@
         <v>385</v>
       </c>
       <c r="I47" s="40" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>228</v>
       </c>
@@ -7265,10 +7394,10 @@
         <v>386</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>229</v>
       </c>
@@ -7288,10 +7417,10 @@
         <v>387</v>
       </c>
       <c r="I49" s="40" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>230</v>
       </c>
@@ -7311,10 +7440,10 @@
         <v>388</v>
       </c>
       <c r="I50" s="40" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>231</v>
       </c>
@@ -7335,7 +7464,7 @@
       </c>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>232</v>
       </c>
@@ -7355,10 +7484,10 @@
         <v>385</v>
       </c>
       <c r="I52" s="40" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -7378,10 +7507,10 @@
         <v>386</v>
       </c>
       <c r="I53" s="40" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>234</v>
       </c>
@@ -7401,10 +7530,10 @@
         <v>387</v>
       </c>
       <c r="I54" s="40" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>235</v>
       </c>
@@ -7424,10 +7553,10 @@
         <v>388</v>
       </c>
       <c r="I55" s="40" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>236</v>
       </c>
@@ -7448,7 +7577,7 @@
       </c>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>237</v>
       </c>
@@ -7469,10 +7598,10 @@
         <v>385</v>
       </c>
       <c r="I57" s="40" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>238</v>
       </c>
@@ -7492,10 +7621,10 @@
         <v>386</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>239</v>
       </c>
@@ -7515,10 +7644,10 @@
         <v>387</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>240</v>
       </c>
@@ -7538,10 +7667,10 @@
         <v>388</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>453</v>
       </c>
@@ -7549,7 +7678,7 @@
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D61" s="49">
         <v>0.06</v>
@@ -7558,10 +7687,10 @@
         <v>362</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>454</v>
       </c>
@@ -7569,7 +7698,7 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D62" s="49">
         <v>0.11</v>
@@ -7579,10 +7708,10 @@
         <v>362</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>455</v>
       </c>
@@ -7590,7 +7719,7 @@
         <v>449</v>
       </c>
       <c r="C63" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D63" s="49">
         <v>0.11</v>
@@ -7599,27 +7728,27 @@
         <v>362</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D64" s="50">
         <v>0.7</v>
       </c>
       <c r="I64" s="48" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>254</v>
       </c>
@@ -7634,7 +7763,7 @@
       </c>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>255</v>
       </c>
@@ -7649,7 +7778,7 @@
       </c>
       <c r="I66" s="23"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>256</v>
       </c>
@@ -7664,7 +7793,7 @@
       </c>
       <c r="I67" s="23"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>257</v>
       </c>
@@ -7684,10 +7813,10 @@
         <v>385</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>258</v>
       </c>
@@ -7707,10 +7836,10 @@
         <v>386</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>259</v>
       </c>
@@ -7730,10 +7859,10 @@
         <v>387</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>260</v>
       </c>
@@ -7754,7 +7883,7 @@
       </c>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>261</v>
       </c>
@@ -7775,7 +7904,7 @@
       </c>
       <c r="I72" s="23"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>263</v>
       </c>
@@ -7795,10 +7924,10 @@
         <v>385</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>264</v>
       </c>
@@ -7818,10 +7947,10 @@
         <v>386</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>265</v>
       </c>
@@ -7841,10 +7970,10 @@
         <v>387</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>266</v>
       </c>
@@ -7865,7 +7994,7 @@
       </c>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>267</v>
       </c>
@@ -7886,7 +8015,7 @@
       </c>
       <c r="I77" s="23"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>268</v>
       </c>
@@ -7906,10 +8035,10 @@
         <v>385</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>269</v>
       </c>
@@ -7929,10 +8058,10 @@
         <v>386</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>270</v>
       </c>
@@ -7952,10 +8081,10 @@
         <v>387</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>271</v>
       </c>
@@ -7975,18 +8104,18 @@
         <v>388</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C82" s="56" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D82" s="49">
         <v>0.2</v>
@@ -7995,10 +8124,10 @@
         <v>362</v>
       </c>
       <c r="I82" s="48" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>456</v>
       </c>
@@ -8016,7 +8145,7 @@
       </c>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>457</v>
       </c>
@@ -8024,16 +8153,16 @@
         <v>452</v>
       </c>
       <c r="C84" s="56" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D84" s="49">
         <v>0.11</v>
       </c>
       <c r="I84" s="45" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>458</v>
       </c>
@@ -8041,16 +8170,16 @@
         <v>451</v>
       </c>
       <c r="C85" s="56" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D85" s="49">
         <v>0.11</v>
       </c>
       <c r="I85" s="45" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -8072,7 +8201,7 @@
       </c>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>436</v>
       </c>
@@ -8093,7 +8222,7 @@
       </c>
       <c r="I87" s="44"/>
     </row>
-    <row r="88" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>433</v>
       </c>
@@ -8113,10 +8242,10 @@
         <v>431</v>
       </c>
       <c r="I88" s="59" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>434</v>
       </c>
@@ -8137,10 +8266,10 @@
         <v>431</v>
       </c>
       <c r="I89" s="60" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>435</v>
       </c>
@@ -8160,10 +8289,10 @@
         <v>431</v>
       </c>
       <c r="I90" s="58" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>438</v>
       </c>
@@ -8183,10 +8312,10 @@
         <v>431</v>
       </c>
       <c r="I91" s="58" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>437</v>
       </c>
@@ -8207,22 +8336,17 @@
       </c>
       <c r="I92" s="61"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I93" s="62" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I94" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8234,13 +8358,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>135</v>
       </c>
@@ -8248,7 +8372,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>137</v>
       </c>
@@ -8256,7 +8380,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>346</v>
       </c>
@@ -8264,15 +8388,15 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>138</v>
       </c>
@@ -8280,7 +8404,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>347</v>
       </c>
@@ -8288,7 +8412,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>140</v>
       </c>
@@ -8296,23 +8420,23 @@
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>348</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>459</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>425</v>
       </c>
@@ -8322,10 +8446,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/project/cascade_belarus.xlsx
+++ b/project/cascade_belarus.xlsx
@@ -1,33 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="120" windowWidth="23800" windowHeight="13740" activeTab="4"/>
+    <workbookView xWindow="984" yWindow="180" windowWidth="23256" windowHeight="13116" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Notes" sheetId="6" r:id="rId1"/>
+    <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
     <sheet name="Compartments" sheetId="1" r:id="rId2"/>
-    <sheet name="Characteristics" sheetId="4" r:id="rId3"/>
-    <sheet name="Parameters" sheetId="3" r:id="rId4"/>
-    <sheet name="Transitions" sheetId="2" r:id="rId5"/>
-    <sheet name="Databook Sheet Names" sheetId="5" r:id="rId6"/>
+    <sheet name="Transitions" sheetId="2" r:id="rId3"/>
+    <sheet name="Characteristics" sheetId="4" r:id="rId4"/>
+    <sheet name="Parameters" sheetId="3" r:id="rId5"/>
+    <sheet name="Notes" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>David Jacob Kedziora</author>
+  </authors>
+  <commentList>
+    <comment ref="D31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>David Jacob Kedziora:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Default with no data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>David Jacob Kedziora:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Default with no data</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="576">
   <si>
     <t>Code Label</t>
   </si>
@@ -302,18 +357,6 @@
     <t>SP XDR Infectious Prevalence</t>
   </si>
   <si>
-    <t>SP Proportion of Active Infections</t>
-  </si>
-  <si>
-    <t>DS Proportion of SP Infections</t>
-  </si>
-  <si>
-    <t>MDR Proportion of SP Infections</t>
-  </si>
-  <si>
-    <t>XDR Proportion of SP Infections</t>
-  </si>
-  <si>
     <t>SP DS Diagnosis Rate</t>
   </si>
   <si>
@@ -338,9 +381,6 @@
     <t>SP MDR Treatment Success Rate</t>
   </si>
   <si>
-    <t>SP MDR-XDR Escalation Rate</t>
-  </si>
-  <si>
     <t>SP XDR Diagnosis Rate</t>
   </si>
   <si>
@@ -371,18 +411,6 @@
     <t>SN XDR Infectious Prevalence</t>
   </si>
   <si>
-    <t>SN Proportion of Active Infections</t>
-  </si>
-  <si>
-    <t>DS Proportion of SN Infections</t>
-  </si>
-  <si>
-    <t>MDR Proportion of SN Infections</t>
-  </si>
-  <si>
-    <t>XDR Proportion of SN Infections</t>
-  </si>
-  <si>
     <t>SN DS Diagnosis Rate</t>
   </si>
   <si>
@@ -407,9 +435,6 @@
     <t>SN MDR Treatment Success Rate</t>
   </si>
   <si>
-    <t>SN MDR-XDR Escalation Rate</t>
-  </si>
-  <si>
     <t>SN XDR Diagnosis Rate</t>
   </si>
   <si>
@@ -887,18 +912,12 @@
     <t>Number of Births</t>
   </si>
   <si>
-    <t>Population Size</t>
-  </si>
-  <si>
     <t>sh_notified</t>
   </si>
   <si>
     <t>sh_other</t>
   </si>
   <si>
-    <t>sh_testing</t>
-  </si>
-  <si>
     <t>DS Smear+ Undiagnosed</t>
   </si>
   <si>
@@ -914,9 +933,6 @@
     <t>gamma</t>
   </si>
   <si>
-    <t>Infectiousness Reduction for SN</t>
-  </si>
-  <si>
     <t>D1_gD2</t>
   </si>
   <si>
@@ -944,15 +960,6 @@
     <t>xi_rec</t>
   </si>
   <si>
-    <t>Infectiousness Reduction for Vaccinated</t>
-  </si>
-  <si>
-    <t>Infectiousness Reduction for Latent Treated</t>
-  </si>
-  <si>
-    <t>Infectiousness Reduction for Recovered</t>
-  </si>
-  <si>
     <t>phi_late</t>
   </si>
   <si>
@@ -1058,12 +1065,6 @@
     <t>betaXDR</t>
   </si>
   <si>
-    <t>Infectiousness Reduction for MDR</t>
-  </si>
-  <si>
-    <t>Infectiousness Reduction for XDR</t>
-  </si>
-  <si>
     <t>latent_tested</t>
   </si>
   <si>
@@ -1115,15 +1116,9 @@
     <t>sh_constants</t>
   </si>
   <si>
-    <t>TB disaggregation</t>
-  </si>
-  <si>
     <t>Constants</t>
   </si>
   <si>
-    <t>Other epidemiology</t>
-  </si>
-  <si>
     <t>(1-p_act_early)*phi_early</t>
   </si>
   <si>
@@ -1179,9 +1174,6 @@
   </si>
   <si>
     <t>mu: Natural death rate</t>
-  </si>
-  <si>
-    <t>sh_otreat</t>
   </si>
   <si>
     <t>Total number of TB-related deaths per year</t>
@@ -1375,21 +1367,6 @@
   </si>
   <si>
     <t>Samandari et al. 2011 (waiting for other paper)</t>
-  </si>
-  <si>
-    <t>SP DS Death Rate (on treatment)</t>
-  </si>
-  <si>
-    <t>SP MDR Death Rate (on treatment)</t>
-  </si>
-  <si>
-    <t>SP XDR Death Rate (on treatment)</t>
-  </si>
-  <si>
-    <t>SN MDR Death Rate (on treatment)</t>
-  </si>
-  <si>
-    <t>SN XDR Death Rate (on treatment)</t>
   </si>
   <si>
     <t>Comments</t>
@@ -1707,12 +1684,6 @@
     <t>pmesc</t>
   </si>
   <si>
-    <t>SP DS-MDR Escalation Rate</t>
-  </si>
-  <si>
-    <t>SN DS-MDR Escalation Rate</t>
-  </si>
-  <si>
     <t>pdsucc</t>
   </si>
   <si>
@@ -1845,15 +1816,6 @@
     <t>spxdut_rate</t>
   </si>
   <si>
-    <t>SP DS Death Rate Undiag/Diag no treat</t>
-  </si>
-  <si>
-    <t>SP MDR Death Rate Undiag/Diag no treat</t>
-  </si>
-  <si>
-    <t>SP XDR Death Rate Undiag/Diag no treat</t>
-  </si>
-  <si>
     <t>snpddut_rate</t>
   </si>
   <si>
@@ -1872,23 +1834,155 @@
     <t>snxdot_rate</t>
   </si>
   <si>
-    <t>SN DS Death Rate Undiag/Diag no treat</t>
-  </si>
-  <si>
-    <t>SN MDR Death Rate Undiag/Diag no treat</t>
-  </si>
-  <si>
-    <t>SN XDR Death Rate Undiag/Diag no treat</t>
-  </si>
-  <si>
-    <t>SN DS Death Rate (on treatment)</t>
+    <t>SP Proportion of New Active Infections</t>
+  </si>
+  <si>
+    <t>SN Proportion of New Active Infections</t>
+  </si>
+  <si>
+    <t>DS Proportion of New SP Infections</t>
+  </si>
+  <si>
+    <t>MDR Proportion of New SP Infections</t>
+  </si>
+  <si>
+    <t>XDR Proportion of New SP Infections</t>
+  </si>
+  <si>
+    <t>DS Proportion of New SN Infections</t>
+  </si>
+  <si>
+    <t>MDR Proportion of New SN Infections</t>
+  </si>
+  <si>
+    <t>XDR Proportion of New SN Infections</t>
+  </si>
+  <si>
+    <t>Other Epidemiology</t>
+  </si>
+  <si>
+    <t>General Demographics</t>
+  </si>
+  <si>
+    <t>sh_atreat</t>
+  </si>
+  <si>
+    <t>sh_ltreat</t>
+  </si>
+  <si>
+    <t>SN DS-MDR Escalation Rate (Improper Treatment)</t>
+  </si>
+  <si>
+    <t>SN MDR-XDR Escalation Rate (Improper Treatment)</t>
+  </si>
+  <si>
+    <t>SP DS-MDR Escalation Rate (Improper Treatment)</t>
+  </si>
+  <si>
+    <t>SP MDR-XDR Escalation Rate (Improper Treatment)</t>
+  </si>
+  <si>
+    <t>SP DS Death Rate (Untreated)</t>
+  </si>
+  <si>
+    <t>SP MDR Death Rate (Untreated)</t>
+  </si>
+  <si>
+    <t>SP XDR Death Rate (Untreated)</t>
+  </si>
+  <si>
+    <t>SP DS Death Rate (On Treatment)</t>
+  </si>
+  <si>
+    <t>SP MDR Death Rate (On Treatment)</t>
+  </si>
+  <si>
+    <t>SP XDR Death Rate (On Treatment)</t>
+  </si>
+  <si>
+    <t>SN DS Death Rate (On Treatment)</t>
+  </si>
+  <si>
+    <t>SN MDR Death Rate (On Treatment)</t>
+  </si>
+  <si>
+    <t>SN XDR Death Rate (On Treatment)</t>
+  </si>
+  <si>
+    <t>SN DS Death Rate (Untreated)</t>
+  </si>
+  <si>
+    <t>SN MDR Death Rate (Untreated)</t>
+  </si>
+  <si>
+    <t>SN XDR Death Rate (Untreated)</t>
+  </si>
+  <si>
+    <t>sh_death</t>
+  </si>
+  <si>
+    <t>Active TB Death Rates</t>
+  </si>
+  <si>
+    <t>Active TB Progression Rates</t>
+  </si>
+  <si>
+    <t>sh_inf</t>
+  </si>
+  <si>
+    <t>Infection Susceptibility</t>
+  </si>
+  <si>
+    <t>Infection Vulnerability Factor (Vaccinated vs. Susceptible)</t>
+  </si>
+  <si>
+    <t>Infection Vulnerability Factor (Latent Treated vs. Susceptible)</t>
+  </si>
+  <si>
+    <t>Infection Vulnerability Factor (Active Recovered vs. Susceptible)</t>
+  </si>
+  <si>
+    <t>SN Relative Infectiousness (Compared to SP)</t>
+  </si>
+  <si>
+    <t>MDR Relative Infectiousness (Compared to DS)</t>
+  </si>
+  <si>
+    <t>XDR Relative Infectiousness (Compared to DS)</t>
+  </si>
+  <si>
+    <t>spd_infxness*betaMDR</t>
+  </si>
+  <si>
+    <t>spd_infxness*betaXDR</t>
+  </si>
+  <si>
+    <t>gamma*spd_infxness</t>
+  </si>
+  <si>
+    <t>gamma*spd_infxness*betaXDR</t>
+  </si>
+  <si>
+    <t>gamma*spd_infxness*betaMDR</t>
+  </si>
+  <si>
+    <t>Latent Progression Rates</t>
+  </si>
+  <si>
+    <t>sh_lprog</t>
+  </si>
+  <si>
+    <t>sh_aprog</t>
+  </si>
+  <si>
+    <t>Disaggregation Ratios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1967,6 +2061,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2436,7 +2543,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2545,9 +2652,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2749,14 +2853,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>325120</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>138854</xdr:rowOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>155316</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>112607</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>156633</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3073,20 +3177,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>279</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3103,21 +3315,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="8.83203125" style="2"/>
+    <col min="4" max="4" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3131,7 +3343,7 @@
         <v>78</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>56</v>
@@ -3140,7 +3352,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3148,10 +3360,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3159,76 +3371,76 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" t="s">
         <v>216</v>
       </c>
-      <c r="B4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" t="s">
         <v>217</v>
       </c>
-      <c r="B5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" t="s">
-        <v>227</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -3236,15 +3448,15 @@
         <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>74</v>
@@ -3253,12 +3465,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>33</v>
@@ -3267,53 +3479,53 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -3322,9 +3534,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -3333,9 +3545,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -3344,9 +3556,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -3355,9 +3567,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
         <v>66</v>
@@ -3366,12 +3578,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>34</v>
@@ -3380,9 +3592,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -3391,9 +3603,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -3402,9 +3614,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
         <v>67</v>
@@ -3413,9 +3625,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -3424,9 +3636,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -3435,9 +3647,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
@@ -3446,9 +3658,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -3457,9 +3669,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -3468,9 +3680,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
         <v>69</v>
@@ -3479,7 +3691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -3490,7 +3702,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3504,7 +3716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3518,12 +3730,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>47</v>
@@ -3544,3367 +3756,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P52"/>
-  <sheetViews>
-    <sheetView topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="56.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="16" width="8.83203125" customWidth="1"/>
-    <col min="17" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>216</v>
-      </c>
-      <c r="K2" t="s">
-        <v>217</v>
-      </c>
-      <c r="L2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M2" t="s">
-        <v>219</v>
-      </c>
-      <c r="N2" t="s">
-        <v>220</v>
-      </c>
-      <c r="O2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J4" t="s">
-        <v>140</v>
-      </c>
-      <c r="K4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J5" t="s">
-        <v>143</v>
-      </c>
-      <c r="K5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J6" t="s">
-        <v>146</v>
-      </c>
-      <c r="K6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D8" s="2">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J8" t="s">
-        <v>152</v>
-      </c>
-      <c r="K8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J9" t="s">
-        <v>214</v>
-      </c>
-      <c r="K9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L9" t="s">
-        <v>139</v>
-      </c>
-      <c r="M9" t="s">
-        <v>156</v>
-      </c>
-      <c r="N9" t="s">
-        <v>142</v>
-      </c>
-      <c r="O9" t="s">
-        <v>157</v>
-      </c>
-      <c r="P9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J10" t="s">
-        <v>215</v>
-      </c>
-      <c r="K10" t="s">
-        <v>184</v>
-      </c>
-      <c r="L10" t="s">
-        <v>148</v>
-      </c>
-      <c r="M10" t="s">
-        <v>185</v>
-      </c>
-      <c r="N10" t="s">
-        <v>151</v>
-      </c>
-      <c r="O10" t="s">
-        <v>186</v>
-      </c>
-      <c r="P10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>213</v>
-      </c>
-      <c r="K11" t="s">
-        <v>158</v>
-      </c>
-      <c r="L11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" t="s">
-        <v>76</v>
-      </c>
-      <c r="N12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="2">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="2">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="2">
-        <v>8</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" t="s">
-        <v>185</v>
-      </c>
-      <c r="O18" s="15"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="2">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
-        <f>10000/E12</f>
-        <v>0.01</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="2">
-        <v>6</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>349</v>
-      </c>
-      <c r="B23" t="s">
-        <v>356</v>
-      </c>
-      <c r="D23" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J23" t="s">
-        <v>148</v>
-      </c>
-      <c r="K23" t="s">
-        <v>151</v>
-      </c>
-      <c r="L23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>350</v>
-      </c>
-      <c r="B24" t="s">
-        <v>357</v>
-      </c>
-      <c r="D24" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J24" t="s">
-        <v>139</v>
-      </c>
-      <c r="K24" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
-        <v>345</v>
-      </c>
-      <c r="B25" t="s">
-        <v>358</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J25" t="s">
-        <v>218</v>
-      </c>
-      <c r="K25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
-        <v>346</v>
-      </c>
-      <c r="B26" t="s">
-        <v>360</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J26" t="s">
-        <v>349</v>
-      </c>
-      <c r="K26" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" t="s">
-        <v>348</v>
-      </c>
-      <c r="B27" t="s">
-        <v>359</v>
-      </c>
-      <c r="D27" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J27" t="s">
-        <v>345</v>
-      </c>
-      <c r="K27" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" t="s">
-        <v>353</v>
-      </c>
-      <c r="B28" t="s">
-        <v>354</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
-        <v>351</v>
-      </c>
-      <c r="B29" t="s">
-        <v>355</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" t="s">
-        <v>352</v>
-      </c>
-      <c r="B30" t="s">
-        <v>347</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" t="s">
-        <v>386</v>
-      </c>
-      <c r="B31" t="s">
-        <v>385</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D31" s="2">
-        <v>3</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" t="s">
-        <v>393</v>
-      </c>
-      <c r="B32" t="s">
-        <v>460</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D32" s="2">
-        <v>7</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>394</v>
-      </c>
-      <c r="B33" t="s">
-        <v>461</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D33" s="2">
-        <v>8</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>395</v>
-      </c>
-      <c r="B34" t="s">
-        <v>462</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D34" s="2">
-        <v>9</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>396</v>
-      </c>
-      <c r="B35" t="s">
-        <v>463</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D35" s="2">
-        <v>10</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>397</v>
-      </c>
-      <c r="B36" t="s">
-        <v>464</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D36" s="2">
-        <v>11</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>398</v>
-      </c>
-      <c r="B37" t="s">
-        <v>465</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D37" s="2">
-        <v>12</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>388</v>
-      </c>
-      <c r="B38" t="s">
-        <v>390</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D38" s="2">
-        <v>4</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="I38" t="s">
-        <v>41</v>
-      </c>
-      <c r="J38" t="s">
-        <v>155</v>
-      </c>
-      <c r="K38" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
-        <v>387</v>
-      </c>
-      <c r="B39" t="s">
-        <v>391</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D39" s="2">
-        <v>5</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="I39" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" t="s">
-        <v>156</v>
-      </c>
-      <c r="K39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>389</v>
-      </c>
-      <c r="B40" t="s">
-        <v>392</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D40" s="2">
-        <v>6</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="I40" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" t="s">
-        <v>157</v>
-      </c>
-      <c r="K40" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>403</v>
-      </c>
-      <c r="B41" t="s">
-        <v>400</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J41" t="s">
-        <v>218</v>
-      </c>
-      <c r="K41" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
-        <v>404</v>
-      </c>
-      <c r="B42" t="s">
-        <v>401</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J42" t="s">
-        <v>217</v>
-      </c>
-      <c r="K42" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
-        <v>405</v>
-      </c>
-      <c r="B43" t="s">
-        <v>402</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
-        <v>406</v>
-      </c>
-      <c r="B44" t="s">
-        <v>415</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D44" s="2">
-        <v>3</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H44" t="s">
-        <v>138</v>
-      </c>
-      <c r="J44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>407</v>
-      </c>
-      <c r="B45" t="s">
-        <v>416</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D45" s="2">
-        <v>4</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H45" t="s">
-        <v>141</v>
-      </c>
-      <c r="J45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
-        <v>408</v>
-      </c>
-      <c r="B46" t="s">
-        <v>417</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D46" s="2">
-        <v>5</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H46" t="s">
-        <v>144</v>
-      </c>
-      <c r="J46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
-        <v>409</v>
-      </c>
-      <c r="B47" t="s">
-        <v>418</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D47" s="2">
-        <v>7</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H47" t="s">
-        <v>147</v>
-      </c>
-      <c r="J47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>410</v>
-      </c>
-      <c r="B48" t="s">
-        <v>419</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D48" s="2">
-        <v>8</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H48" t="s">
-        <v>150</v>
-      </c>
-      <c r="J48" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" t="s">
-        <v>411</v>
-      </c>
-      <c r="B49" t="s">
-        <v>420</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D49" s="2">
-        <v>9</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H49" t="s">
-        <v>153</v>
-      </c>
-      <c r="J49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" t="s">
-        <v>412</v>
-      </c>
-      <c r="B50" t="s">
-        <v>421</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D50" s="2">
-        <v>2</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J50" t="s">
-        <v>138</v>
-      </c>
-      <c r="K50" t="s">
-        <v>141</v>
-      </c>
-      <c r="L50" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" t="s">
-        <v>413</v>
-      </c>
-      <c r="B51" t="s">
-        <v>422</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D51" s="2">
-        <v>6</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J51" t="s">
-        <v>147</v>
-      </c>
-      <c r="K51" t="s">
-        <v>150</v>
-      </c>
-      <c r="L51" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" t="s">
-        <v>414</v>
-      </c>
-      <c r="B52" t="s">
-        <v>423</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J52" t="s">
-        <v>413</v>
-      </c>
-      <c r="K52" t="s">
-        <v>412</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N99"/>
-  <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="118.1640625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="98" customWidth="1"/>
-    <col min="14" max="14" width="75.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" s="36">
-        <v>100000</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F2" s="2">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="36">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28">
-      <c r="A4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s">
-        <v>295</v>
-      </c>
-      <c r="D4" s="36">
-        <v>0.22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>301</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="42">
-      <c r="A5" s="54" t="s">
-        <v>341</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="54" t="s">
-        <v>343</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="55" t="s">
-        <v>361</v>
-      </c>
-      <c r="F5" s="55">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>380</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="54" t="s">
-        <v>344</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="55" t="s">
-        <v>361</v>
-      </c>
-      <c r="F6" s="55">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>381</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H7" t="s">
-        <v>337</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D8" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H8" t="s">
-        <v>338</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D9" s="45">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H9" t="s">
-        <v>339</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>328</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D10" s="43">
-        <v>1E-3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H10" t="s">
-        <v>330</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>308</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="60">
-        <v>0.09</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H11" t="s">
-        <v>331</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16" customHeight="1">
-      <c r="A12" t="s">
-        <v>311</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s">
-        <v>312</v>
-      </c>
-      <c r="D12" s="43">
-        <v>0.115</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H12" t="s">
-        <v>382</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16" customHeight="1">
-      <c r="A13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s">
-        <v>314</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>313</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16" customHeight="1">
-      <c r="A14" t="s">
-        <v>333</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" s="39">
-        <v>0.44</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
-        <v>315</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16" customHeight="1">
-      <c r="A15" t="s">
-        <v>334</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s">
-        <v>319</v>
-      </c>
-      <c r="D15" s="39">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F15" s="2">
-        <v>5</v>
-      </c>
-      <c r="H15" t="s">
-        <v>316</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>317</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s">
-        <v>318</v>
-      </c>
-      <c r="D16" s="44">
-        <v>0.74</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
-        <v>329</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s">
-        <v>263</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H17" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H18" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H19" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>192</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H20" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>193</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s">
-        <v>267</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H21" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H22" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s">
-        <v>297</v>
-      </c>
-      <c r="F23" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C24" t="s">
-        <v>259</v>
-      </c>
-      <c r="F24" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C25" t="s">
-        <v>260</v>
-      </c>
-      <c r="F25" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C26" t="s">
-        <v>261</v>
-      </c>
-      <c r="F26" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C27" t="s">
-        <v>262</v>
-      </c>
-      <c r="F27" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C28" t="s">
-        <v>241</v>
-      </c>
-      <c r="F28" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>242</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C29" t="s">
-        <v>248</v>
-      </c>
-      <c r="F29" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>243</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C30" t="s">
-        <v>249</v>
-      </c>
-      <c r="F30" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C31" t="s">
-        <v>250</v>
-      </c>
-      <c r="F31" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>235</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C32" t="s">
-        <v>251</v>
-      </c>
-      <c r="F32" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>245</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C33" t="s">
-        <v>252</v>
-      </c>
-      <c r="F33" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>246</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C34" t="s">
-        <v>253</v>
-      </c>
-      <c r="F34" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>247</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C35" t="s">
-        <v>254</v>
-      </c>
-      <c r="F35" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>255</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C36" t="s">
-        <v>257</v>
-      </c>
-      <c r="F36" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="H36" s="23"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>256</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C37" t="s">
-        <v>258</v>
-      </c>
-      <c r="F37" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>231</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C38" t="s">
-        <v>237</v>
-      </c>
-      <c r="F38" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>233</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C39" t="s">
-        <v>238</v>
-      </c>
-      <c r="F39" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>234</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C40" t="s">
-        <v>239</v>
-      </c>
-      <c r="F40" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>236</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C41" t="s">
-        <v>240</v>
-      </c>
-      <c r="F41" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="38">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C43" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="38">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C44" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="38">
-        <v>3</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>168</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="38">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>169</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="38">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>170</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C47" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="47">
-        <v>0.9</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H47" t="s">
-        <v>321</v>
-      </c>
-      <c r="I47" s="40" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C48" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="47">
-        <v>0.91</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H48" t="s">
-        <v>322</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>172</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="47">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H49" t="s">
-        <v>323</v>
-      </c>
-      <c r="I49" s="40" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>173</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="47">
-        <v>0.85</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H50" t="s">
-        <v>324</v>
-      </c>
-      <c r="I50" s="40" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>174</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C51" t="s">
-        <v>504</v>
-      </c>
-      <c r="D51" s="47">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H51" t="s">
-        <v>325</v>
-      </c>
-      <c r="I51" s="23"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>175</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C52" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="47">
-        <v>0.9</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H52" t="s">
-        <v>321</v>
-      </c>
-      <c r="I52" s="40" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" s="47">
-        <v>0.91</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H53" t="s">
-        <v>322</v>
-      </c>
-      <c r="I53" s="40" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>177</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" s="47">
-        <v>0.34</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H54" t="s">
-        <v>323</v>
-      </c>
-      <c r="I54" s="40" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>178</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C55" t="s">
-        <v>102</v>
-      </c>
-      <c r="D55" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H55" t="s">
-        <v>324</v>
-      </c>
-      <c r="I55" s="40" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>179</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C56" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="47">
-        <v>0</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H56" t="s">
-        <v>325</v>
-      </c>
-      <c r="I56" s="23"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>180</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C57" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="47">
-        <v>0.9</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F57" s="40"/>
-      <c r="H57" t="s">
-        <v>321</v>
-      </c>
-      <c r="I57" s="40" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
-        <v>181</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C58" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" s="47">
-        <v>0.91</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H58" t="s">
-        <v>322</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>182</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C59" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" s="47">
-        <v>0.34</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H59" t="s">
-        <v>323</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>183</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C60" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H60" t="s">
-        <v>324</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
-        <v>547</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C61" s="54" t="s">
-        <v>550</v>
-      </c>
-      <c r="D61" s="48">
-        <v>0.7</v>
-      </c>
-      <c r="I61" s="46" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>548</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C62" s="54" t="s">
-        <v>551</v>
-      </c>
-      <c r="D62" s="48">
-        <v>0.7</v>
-      </c>
-      <c r="I62" s="46" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s">
-        <v>549</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C63" s="54" t="s">
-        <v>552</v>
-      </c>
-      <c r="D63" s="48">
-        <v>0.7</v>
-      </c>
-      <c r="I63" s="46" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" t="s">
-        <v>544</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C64" t="s">
-        <v>449</v>
-      </c>
-      <c r="D64" s="47">
-        <v>0.06</v>
-      </c>
-      <c r="H64" t="s">
-        <v>298</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>545</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C65" t="s">
-        <v>450</v>
-      </c>
-      <c r="D65" s="47">
-        <v>0.11</v>
-      </c>
-      <c r="F65" s="40"/>
-      <c r="H65" t="s">
-        <v>298</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>546</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C66" t="s">
-        <v>451</v>
-      </c>
-      <c r="D66" s="47">
-        <v>0.11</v>
-      </c>
-      <c r="H66" t="s">
-        <v>298</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>196</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C67" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="D67" s="38">
-        <v>3</v>
-      </c>
-      <c r="I67" s="23"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
-        <v>197</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C68" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="D68" s="38">
-        <v>2</v>
-      </c>
-      <c r="I68" s="23"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" t="s">
-        <v>198</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C69" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="D69" s="38">
-        <v>1</v>
-      </c>
-      <c r="I69" s="23"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" t="s">
-        <v>199</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C70" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="D70" s="47">
-        <v>0.9</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H70" t="s">
-        <v>321</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" t="s">
-        <v>200</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C71" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="D71" s="47">
-        <v>0.91</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H71" t="s">
-        <v>322</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C72" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="D72" s="47">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H72" t="s">
-        <v>323</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" t="s">
-        <v>202</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C73" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" s="47">
-        <v>0.85</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H73" t="s">
-        <v>324</v>
-      </c>
-      <c r="I73" s="23"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" t="s">
-        <v>203</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C74" s="54" t="s">
-        <v>505</v>
-      </c>
-      <c r="D74" s="47">
-        <v>0</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H74" t="s">
-        <v>325</v>
-      </c>
-      <c r="I74" s="23"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" t="s">
-        <v>204</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C75" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="D75" s="47">
-        <v>0.9</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H75" t="s">
-        <v>321</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" t="s">
-        <v>205</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C76" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="D76" s="47">
-        <v>0.91</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H76" t="s">
-        <v>322</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" t="s">
-        <v>206</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C77" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="D77" s="47">
-        <v>0.34</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H77" t="s">
-        <v>323</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" t="s">
-        <v>207</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C78" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D78" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H78" t="s">
-        <v>324</v>
-      </c>
-      <c r="I78" s="23"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" t="s">
-        <v>208</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C79" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="D79" s="47">
-        <v>0</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H79" t="s">
-        <v>325</v>
-      </c>
-      <c r="I79" s="23"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" t="s">
-        <v>209</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C80" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="D80" s="47">
-        <v>0.9</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H80" t="s">
-        <v>321</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" t="s">
-        <v>210</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C81" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="D81" s="47">
-        <v>0.91</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H81" t="s">
-        <v>322</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" t="s">
-        <v>211</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C82" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="D82" s="47">
-        <v>0.34</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H82" t="s">
-        <v>323</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" t="s">
-        <v>212</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C83" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H83" t="s">
-        <v>324</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" t="s">
-        <v>553</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C84" s="54" t="s">
-        <v>559</v>
-      </c>
-      <c r="D84" s="48">
-        <v>0.2</v>
-      </c>
-      <c r="I84" s="46" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" t="s">
-        <v>554</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C85" s="54" t="s">
-        <v>560</v>
-      </c>
-      <c r="D85" s="48">
-        <v>0.2</v>
-      </c>
-      <c r="I85" s="46" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" t="s">
-        <v>555</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C86" s="54" t="s">
-        <v>561</v>
-      </c>
-      <c r="D86" s="48">
-        <v>0.2</v>
-      </c>
-      <c r="I86" s="46" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" t="s">
-        <v>556</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C87" t="s">
-        <v>562</v>
-      </c>
-      <c r="D87" s="47">
-        <v>0.06</v>
-      </c>
-      <c r="H87" t="s">
-        <v>298</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" t="s">
-        <v>557</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C88" t="s">
-        <v>452</v>
-      </c>
-      <c r="D88" s="47">
-        <v>0.11</v>
-      </c>
-      <c r="F88" s="40"/>
-      <c r="H88" t="s">
-        <v>298</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" t="s">
-        <v>558</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C89" t="s">
-        <v>453</v>
-      </c>
-      <c r="D89" s="47">
-        <v>0.11</v>
-      </c>
-      <c r="H89" t="s">
-        <v>298</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="A90" t="s">
-        <v>46</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90" t="s">
-        <v>64</v>
-      </c>
-      <c r="D90" s="36"/>
-      <c r="E90" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F90" s="2">
-        <v>2</v>
-      </c>
-      <c r="H90" t="s">
-        <v>383</v>
-      </c>
-      <c r="I90" s="23"/>
-    </row>
-    <row r="91" spans="1:14" ht="56">
-      <c r="A91" t="s">
-        <v>371</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C91" t="s">
-        <v>374</v>
-      </c>
-      <c r="D91" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H91" t="s">
-        <v>367</v>
-      </c>
-      <c r="I91" s="57" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="42">
-      <c r="A92" t="s">
-        <v>368</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C92" t="s">
-        <v>375</v>
-      </c>
-      <c r="D92" s="36">
-        <v>0.15</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H92" t="s">
-        <v>367</v>
-      </c>
-      <c r="I92" s="57" t="s">
-        <v>530</v>
-      </c>
-      <c r="N92" s="56" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" t="s">
-        <v>369</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C93" t="s">
-        <v>376</v>
-      </c>
-      <c r="D93" s="36">
-        <v>0.15</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F93" s="42"/>
-      <c r="H93" t="s">
-        <v>367</v>
-      </c>
-      <c r="I93" s="58" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" t="s">
-        <v>370</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C94" t="s">
-        <v>377</v>
-      </c>
-      <c r="D94" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H94" t="s">
-        <v>367</v>
-      </c>
-      <c r="I94" s="56" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" t="s">
-        <v>373</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C95" t="s">
-        <v>378</v>
-      </c>
-      <c r="D95" s="36">
-        <v>0.15</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H95" t="s">
-        <v>367</v>
-      </c>
-      <c r="I95" s="56" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" t="s">
-        <v>372</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C96" t="s">
-        <v>379</v>
-      </c>
-      <c r="D96" s="36">
-        <v>0.15</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H96" t="s">
-        <v>367</v>
-      </c>
-      <c r="I96" s="59" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="97" spans="9:9">
-      <c r="I97" s="61"/>
-    </row>
-    <row r="98" spans="9:9">
-      <c r="I98" s="61"/>
-    </row>
-    <row r="99" spans="9:9">
-      <c r="I99" s="62"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.33203125" customWidth="1"/>
     <col min="15" max="15" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.33203125" customWidth="1"/>
     <col min="25" max="25" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -6913,88 +3811,88 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>75</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Z1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="AA1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="AB1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="AC1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="AD1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AE1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AF1" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="AG1" s="4" t="s">
         <v>76</v>
@@ -7006,13 +3904,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -7049,17 +3947,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -7094,7 +3992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -7109,7 +4007,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="17" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="10"/>
@@ -7137,26 +4035,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
       <c r="L5" s="28" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="M5" s="26"/>
       <c r="N5" s="27"/>
@@ -7184,9 +4082,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -7194,16 +4092,16 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="17" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10"/>
@@ -7231,23 +4129,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="31"/>
@@ -7276,9 +4174,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
@@ -7288,12 +4186,12 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="28" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="27"/>
@@ -7321,9 +4219,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -7334,11 +4232,11 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="17" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10"/>
@@ -7366,9 +4264,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
@@ -7378,11 +4276,11 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="L10" s="33"/>
       <c r="M10" s="31"/>
@@ -7411,7 +4309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -7426,7 +4324,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="17" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10"/>
@@ -7454,9 +4352,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
@@ -7470,7 +4368,7 @@
       <c r="K12" s="20"/>
       <c r="L12" s="21"/>
       <c r="M12" s="19" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
@@ -7482,7 +4380,7 @@
       <c r="U12" s="20"/>
       <c r="V12" s="22"/>
       <c r="W12" s="19" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
@@ -7497,9 +4395,9 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="22"/>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -7514,17 +4412,17 @@
       <c r="L13" s="16"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="8"/>
@@ -7542,9 +4440,9 @@
       <c r="AH13" s="10"/>
       <c r="AI13" s="11"/>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -7560,7 +4458,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
@@ -7580,18 +4478,18 @@
       <c r="AE14" s="10"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="9" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="AI14" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -7608,7 +4506,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -7627,18 +4525,18 @@
       <c r="AE15" s="10"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="9" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="AI15" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -7654,12 +4552,12 @@
       <c r="M16" s="9"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
@@ -7676,18 +4574,18 @@
       <c r="AE16" s="10"/>
       <c r="AF16" s="11"/>
       <c r="AG16" s="9" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="AH16" s="10" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="AI16" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
@@ -7706,7 +4604,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -7723,18 +4621,18 @@
       <c r="AE17" s="10"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="9" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -7754,7 +4652,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
@@ -7770,18 +4668,18 @@
       <c r="AE18" s="10"/>
       <c r="AF18" s="11"/>
       <c r="AG18" s="9" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="AI18" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -7800,12 +4698,12 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="V19" s="11"/>
       <c r="W19" s="9"/>
@@ -7819,18 +4717,18 @@
       <c r="AE19" s="10"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="9" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="AH19" s="10" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="AI19" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -7852,7 +4750,7 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="V20" s="10"/>
       <c r="W20" s="9"/>
@@ -7866,18 +4764,18 @@
       <c r="AE20" s="10"/>
       <c r="AF20" s="11"/>
       <c r="AG20" s="9" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="AI20" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
@@ -7900,7 +4798,7 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="W21" s="9"/>
       <c r="X21" s="10"/>
@@ -7913,18 +4811,18 @@
       <c r="AE21" s="10"/>
       <c r="AF21" s="11"/>
       <c r="AG21" s="9" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="AI21" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
@@ -7946,7 +4844,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="10" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="V22" s="10"/>
       <c r="W22" s="12"/>
@@ -7960,18 +4858,18 @@
       <c r="AE22" s="13"/>
       <c r="AF22" s="14"/>
       <c r="AG22" s="12" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="AH22" s="13" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="AI22" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -7996,17 +4894,17 @@
       <c r="V23" s="8"/>
       <c r="W23" s="6"/>
       <c r="X23" s="7" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="8"/>
@@ -8014,9 +4912,9 @@
       <c r="AH23" s="7"/>
       <c r="AI23" s="8"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
@@ -8042,7 +4940,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="10" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
@@ -8052,18 +4950,18 @@
       <c r="AE24" s="10"/>
       <c r="AF24" s="11"/>
       <c r="AG24" s="9" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="AI24" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
@@ -8090,7 +4988,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
@@ -8099,18 +4997,18 @@
       <c r="AE25" s="10"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="9" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="AI25" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
@@ -8136,30 +5034,30 @@
       <c r="W26" s="9"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="10" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="11"/>
       <c r="AG26" s="9" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="AH26" s="10" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="AI26" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
@@ -8188,25 +5086,25 @@
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="9" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="AI27" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -8236,24 +5134,24 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="11"/>
       <c r="AG28" s="9" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="AI28" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -8282,27 +5180,27 @@
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="AF29" s="11"/>
       <c r="AG29" s="9" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="AH29" s="10" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="AI29" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
@@ -8334,22 +5232,22 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="10"/>
       <c r="AE30" s="10" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="AF30" s="10"/>
       <c r="AG30" s="9" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="AI30" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
@@ -8382,21 +5280,21 @@
       <c r="AD31" s="10"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="AG31" s="9" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="AI31" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
@@ -8428,20 +5326,20 @@
       <c r="AC32" s="13"/>
       <c r="AD32" s="13"/>
       <c r="AE32" s="13" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="AF32" s="14"/>
       <c r="AG32" s="12" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="AH32" s="13" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="AI32" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>76</v>
       </c>
@@ -8456,7 +5354,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="16" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10"/>
@@ -8484,7 +5382,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -8523,7 +5421,7 @@
       <c r="AH34" s="10"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -8574,98 +5472,3577 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="56.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="16" width="8.77734375" customWidth="1"/>
+    <col min="17" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J9" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L9" t="s">
+        <v>129</v>
+      </c>
+      <c r="M9" t="s">
+        <v>146</v>
+      </c>
+      <c r="N9" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" t="s">
+        <v>147</v>
+      </c>
+      <c r="P9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" t="s">
+        <v>174</v>
+      </c>
+      <c r="L10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" t="s">
+        <v>175</v>
+      </c>
+      <c r="N10" t="s">
+        <v>141</v>
+      </c>
+      <c r="O10" t="s">
+        <v>176</v>
+      </c>
+      <c r="P10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" s="15"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="2">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B23" t="s">
+        <v>340</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" t="s">
+        <v>342</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J24" t="s">
+        <v>331</v>
+      </c>
+      <c r="K24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>332</v>
+      </c>
+      <c r="B25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J25" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" t="s">
+        <v>338</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J26" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27" t="s">
+        <v>341</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J27" t="s">
+        <v>327</v>
+      </c>
+      <c r="K27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>335</v>
+      </c>
+      <c r="B28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>334</v>
+      </c>
+      <c r="B30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>365</v>
+      </c>
+      <c r="B31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>375</v>
+      </c>
+      <c r="B32" t="s">
+        <v>437</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>376</v>
+      </c>
+      <c r="B33" t="s">
+        <v>438</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D33" s="2">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>377</v>
+      </c>
+      <c r="B34" t="s">
+        <v>439</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D34" s="2">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>372</v>
+      </c>
+      <c r="B35" t="s">
+        <v>434</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D35" s="2">
+        <v>7</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>373</v>
+      </c>
+      <c r="B36" t="s">
+        <v>435</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" s="2">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>374</v>
+      </c>
+      <c r="B37" t="s">
+        <v>436</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D37" s="2">
+        <v>9</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>367</v>
+      </c>
+      <c r="B38" t="s">
+        <v>369</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" t="s">
+        <v>145</v>
+      </c>
+      <c r="K38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>366</v>
+      </c>
+      <c r="B39" t="s">
+        <v>370</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="2">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" t="s">
+        <v>146</v>
+      </c>
+      <c r="K39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>368</v>
+      </c>
+      <c r="B40" t="s">
+        <v>371</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D40" s="2">
+        <v>6</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I40" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" t="s">
+        <v>147</v>
+      </c>
+      <c r="K40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>382</v>
+      </c>
+      <c r="B41" t="s">
+        <v>379</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J41" t="s">
+        <v>208</v>
+      </c>
+      <c r="K41" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>383</v>
+      </c>
+      <c r="B42" t="s">
+        <v>380</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J42" t="s">
+        <v>207</v>
+      </c>
+      <c r="K42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>384</v>
+      </c>
+      <c r="B43" t="s">
+        <v>381</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>385</v>
+      </c>
+      <c r="B44" t="s">
+        <v>394</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H44" t="s">
+        <v>128</v>
+      </c>
+      <c r="J44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>386</v>
+      </c>
+      <c r="B45" t="s">
+        <v>395</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H45" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>387</v>
+      </c>
+      <c r="B46" t="s">
+        <v>396</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" s="2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H46" t="s">
+        <v>134</v>
+      </c>
+      <c r="J46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>388</v>
+      </c>
+      <c r="B47" t="s">
+        <v>397</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47" s="2">
+        <v>7</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H47" t="s">
+        <v>137</v>
+      </c>
+      <c r="J47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>389</v>
+      </c>
+      <c r="B48" t="s">
+        <v>398</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" s="2">
+        <v>8</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H48" t="s">
+        <v>140</v>
+      </c>
+      <c r="J48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>390</v>
+      </c>
+      <c r="B49" t="s">
+        <v>399</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" s="2">
+        <v>9</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H49" t="s">
+        <v>143</v>
+      </c>
+      <c r="J49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>391</v>
+      </c>
+      <c r="B50" t="s">
+        <v>400</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J50" t="s">
+        <v>128</v>
+      </c>
+      <c r="K50" t="s">
+        <v>131</v>
+      </c>
+      <c r="L50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>392</v>
+      </c>
+      <c r="B51" t="s">
+        <v>401</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" s="2">
+        <v>6</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J51" t="s">
+        <v>137</v>
+      </c>
+      <c r="K51" t="s">
+        <v>140</v>
+      </c>
+      <c r="L51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>393</v>
+      </c>
+      <c r="B52" t="s">
+        <v>402</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J52" t="s">
+        <v>392</v>
+      </c>
+      <c r="K52" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="118.109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="98" customWidth="1"/>
+    <col min="14" max="14" width="75.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="43">
+        <v>0.74</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="38">
+        <v>0.44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>299</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="38">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>300</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="D15"/>
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="42">
+        <v>1E-3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="H16" t="s">
+        <v>314</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17" s="59">
+        <v>0.09</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="H17" t="s">
+        <v>315</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18" s="42">
+        <v>0.115</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="H18" t="s">
+        <v>362</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C20" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C22" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="D25" s="37"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s">
+        <v>561</v>
+      </c>
+      <c r="D26" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>321</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>290</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s">
+        <v>562</v>
+      </c>
+      <c r="D27" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>322</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s">
+        <v>563</v>
+      </c>
+      <c r="D28" s="44">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>323</v>
+      </c>
+      <c r="I28" s="51" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s">
+        <v>253</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s">
+        <v>564</v>
+      </c>
+      <c r="D30" s="36">
+        <v>0.22</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>288</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="D31" s="48">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F31" s="54">
+        <v>6</v>
+      </c>
+      <c r="H31" t="s">
+        <v>360</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="D32" s="48">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F32" s="54">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>361</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="F33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>567</v>
+      </c>
+      <c r="H33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="F34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>568</v>
+      </c>
+      <c r="H34" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="F35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>569</v>
+      </c>
+      <c r="H35" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="F36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>571</v>
+      </c>
+      <c r="H36" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="F37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>570</v>
+      </c>
+      <c r="H37" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>283</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C39" t="s">
+        <v>249</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C40" t="s">
+        <v>250</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C41" t="s">
+        <v>251</v>
+      </c>
+      <c r="F41" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C42" t="s">
+        <v>252</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>274</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>363</v>
+      </c>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C47" t="s">
+        <v>528</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C48" t="s">
+        <v>529</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C49" t="s">
+        <v>530</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C50" t="s">
+        <v>531</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C51" t="s">
+        <v>532</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>533</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="2">
+        <v>6</v>
+      </c>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>534</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="2">
+        <v>7</v>
+      </c>
+      <c r="I53" s="23"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C54" s="53" t="s">
+        <v>535</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="2">
+        <v>8</v>
+      </c>
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="2"/>
+      <c r="C55" s="53"/>
+      <c r="D55"/>
+      <c r="I55" s="23"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>305</v>
+      </c>
+      <c r="I56" s="39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="46">
+        <v>0.91</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>306</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="46">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F58" s="2">
+        <v>3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>307</v>
+      </c>
+      <c r="I58" s="39" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="46">
+        <v>0.85</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F59" s="2">
+        <v>4</v>
+      </c>
+      <c r="H59" t="s">
+        <v>308</v>
+      </c>
+      <c r="I59" s="39" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F60" s="2">
+        <v>5</v>
+      </c>
+      <c r="H60" t="s">
+        <v>305</v>
+      </c>
+      <c r="I60" s="39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="46">
+        <v>0.91</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F61" s="2">
+        <v>6</v>
+      </c>
+      <c r="H61" t="s">
+        <v>306</v>
+      </c>
+      <c r="I61" s="39" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="46">
+        <v>0.34</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F62" s="2">
+        <v>7</v>
+      </c>
+      <c r="H62" t="s">
+        <v>307</v>
+      </c>
+      <c r="I62" s="39" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F63" s="2">
+        <v>8</v>
+      </c>
+      <c r="H63" t="s">
+        <v>308</v>
+      </c>
+      <c r="I63" s="39" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C64" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F64" s="39">
+        <v>9</v>
+      </c>
+      <c r="H64" t="s">
+        <v>305</v>
+      </c>
+      <c r="I64" s="39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="46">
+        <v>0.91</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F65" s="2">
+        <v>10</v>
+      </c>
+      <c r="H65" t="s">
+        <v>306</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C66" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" s="46">
+        <v>0.34</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F66" s="39">
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
+        <v>307</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F67" s="2">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
+        <v>308</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C68" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F68" s="39">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
+        <v>305</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C69" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="46">
+        <v>0.91</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F69" s="2">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>306</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C70" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="46">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F70" s="39">
+        <v>15</v>
+      </c>
+      <c r="H70" t="s">
+        <v>307</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C71" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="46">
+        <v>0.85</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F71" s="2">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>308</v>
+      </c>
+      <c r="I71" s="23"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C72" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F72" s="39">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
+        <v>305</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C73" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73" s="46">
+        <v>0.91</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F73" s="2">
+        <v>18</v>
+      </c>
+      <c r="H73" t="s">
+        <v>306</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C74" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" s="46">
+        <v>0.34</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F74" s="39">
+        <v>19</v>
+      </c>
+      <c r="H74" t="s">
+        <v>307</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C75" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F75" s="2">
+        <v>20</v>
+      </c>
+      <c r="H75" t="s">
+        <v>308</v>
+      </c>
+      <c r="I75" s="23"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C76" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F76" s="39">
+        <v>21</v>
+      </c>
+      <c r="H76" t="s">
+        <v>305</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C77" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" s="46">
+        <v>0.91</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F77" s="2">
+        <v>22</v>
+      </c>
+      <c r="H77" t="s">
+        <v>306</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C78" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D78" s="46">
+        <v>0.34</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F78" s="39">
+        <v>23</v>
+      </c>
+      <c r="H78" t="s">
+        <v>307</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C79" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F79" s="2">
+        <v>24</v>
+      </c>
+      <c r="H79" t="s">
+        <v>308</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B80" s="2"/>
+      <c r="D80"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>351</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C81" t="s">
+        <v>354</v>
+      </c>
+      <c r="D81" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F81" s="2">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>347</v>
+      </c>
+      <c r="I81" s="56" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>348</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C82" t="s">
+        <v>355</v>
+      </c>
+      <c r="D82" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F82" s="2">
+        <v>2</v>
+      </c>
+      <c r="H82" t="s">
+        <v>347</v>
+      </c>
+      <c r="I82" s="56" t="s">
+        <v>502</v>
+      </c>
+      <c r="N82" s="55" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>349</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C83" t="s">
+        <v>356</v>
+      </c>
+      <c r="D83" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F83" s="41">
+        <v>3</v>
+      </c>
+      <c r="H83" t="s">
+        <v>347</v>
+      </c>
+      <c r="I83" s="57" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>350</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C84" t="s">
+        <v>357</v>
+      </c>
+      <c r="D84" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F84" s="2">
+        <v>4</v>
+      </c>
+      <c r="H84" t="s">
+        <v>347</v>
+      </c>
+      <c r="I84" s="55" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>353</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C85" t="s">
+        <v>358</v>
+      </c>
+      <c r="D85" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F85" s="2">
+        <v>5</v>
+      </c>
+      <c r="H85" t="s">
+        <v>347</v>
+      </c>
+      <c r="I85" s="55" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>352</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C86" t="s">
+        <v>359</v>
+      </c>
+      <c r="D86" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F86" s="2">
+        <v>6</v>
+      </c>
+      <c r="H86" t="s">
+        <v>347</v>
+      </c>
+      <c r="I86" s="58" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C87" s="53" t="s">
+        <v>540</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F87" s="2">
+        <v>7</v>
+      </c>
+      <c r="H87" t="s">
+        <v>309</v>
+      </c>
+      <c r="I87" s="23"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C88" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F88" s="2">
+        <v>8</v>
+      </c>
+      <c r="H88" t="s">
+        <v>309</v>
+      </c>
+      <c r="I88" s="23"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C89" t="s">
+        <v>542</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F89" s="2">
+        <v>9</v>
+      </c>
+      <c r="H89" t="s">
+        <v>309</v>
+      </c>
+      <c r="I89" s="23"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C90" t="s">
+        <v>543</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F90" s="2">
+        <v>10</v>
+      </c>
+      <c r="H90" t="s">
+        <v>309</v>
+      </c>
+      <c r="I90" s="23"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B91" s="2"/>
+      <c r="D91"/>
+      <c r="I91" s="23"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>519</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C92" s="53" t="s">
+        <v>544</v>
+      </c>
+      <c r="D92" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F92" s="2">
+        <v>1</v>
+      </c>
+      <c r="I92" s="45" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>520</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C93" s="53" t="s">
+        <v>545</v>
+      </c>
+      <c r="D93" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F93" s="2">
+        <v>2</v>
+      </c>
+      <c r="I93" s="45" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>521</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C94" s="53" t="s">
+        <v>546</v>
+      </c>
+      <c r="D94" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F94" s="2">
+        <v>3</v>
+      </c>
+      <c r="I94" s="45" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>516</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C95" t="s">
+        <v>547</v>
+      </c>
+      <c r="D95" s="46">
+        <v>0.06</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F95" s="2">
+        <v>4</v>
+      </c>
+      <c r="H95" t="s">
+        <v>285</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>517</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C96" t="s">
+        <v>548</v>
+      </c>
+      <c r="D96" s="46">
+        <v>0.11</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F96" s="39">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>285</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>518</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C97" t="s">
+        <v>549</v>
+      </c>
+      <c r="D97" s="46">
+        <v>0.11</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F97" s="2">
+        <v>6</v>
+      </c>
+      <c r="H97" t="s">
+        <v>285</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>522</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C98" s="53" t="s">
+        <v>553</v>
+      </c>
+      <c r="D98" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F98" s="2">
+        <v>7</v>
+      </c>
+      <c r="I98" s="45" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>523</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C99" s="53" t="s">
+        <v>554</v>
+      </c>
+      <c r="D99" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F99" s="2">
+        <v>8</v>
+      </c>
+      <c r="I99" s="45" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>524</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C100" s="53" t="s">
+        <v>555</v>
+      </c>
+      <c r="D100" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F100" s="2">
+        <v>9</v>
+      </c>
+      <c r="I100" s="45" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>525</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C101" t="s">
+        <v>550</v>
+      </c>
+      <c r="D101" s="46">
+        <v>0.06</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F101" s="2">
+        <v>10</v>
+      </c>
+      <c r="H101" t="s">
+        <v>285</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>526</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C102" t="s">
+        <v>551</v>
+      </c>
+      <c r="D102" s="46">
+        <v>0.11</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F102" s="39">
+        <v>11</v>
+      </c>
+      <c r="H102" t="s">
+        <v>285</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>527</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C103" t="s">
+        <v>552</v>
+      </c>
+      <c r="D103" s="46">
+        <v>0.11</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F103" s="2">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>285</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="2"/>
+      <c r="D104"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I105" s="60"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I106" s="60"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I107" s="61"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>363</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/project/cascade_belarus.xlsx
+++ b/project/cascade_belarus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="984" yWindow="180" windowWidth="23256" windowHeight="13116" activeTab="4"/>
+    <workbookView xWindow="984" yWindow="180" windowWidth="23256" windowHeight="13116" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Sheet Names" sheetId="5" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="576">
   <si>
     <t>Code Label</t>
   </si>
@@ -5476,8 +5476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5544,6 +5544,9 @@
       <c r="B2" t="s">
         <v>48</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="D2" s="2">
         <v>-1</v>
       </c>
@@ -5848,6 +5851,9 @@
       <c r="B13" t="s">
         <v>61</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>433</v>
       </c>
@@ -6121,27 +6127,33 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>339</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-1</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>433</v>
       </c>
       <c r="J24" t="s">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="K24" t="s">
-        <v>332</v>
+        <v>132</v>
+      </c>
+      <c r="L24" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D25" s="2">
         <v>-1</v>
@@ -6150,36 +6162,30 @@
         <v>433</v>
       </c>
       <c r="J25" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B26" t="s">
-        <v>338</v>
-      </c>
-      <c r="D26" s="2">
-        <v>-1</v>
+        <v>342</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>433</v>
       </c>
       <c r="J26" t="s">
-        <v>138</v>
+        <v>331</v>
       </c>
       <c r="K26" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" t="s">
-        <v>144</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -6809,8 +6815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7686,7 +7692,9 @@
       <c r="C47" t="s">
         <v>528</v>
       </c>
-      <c r="D47"/>
+      <c r="D47">
+        <v>1</v>
+      </c>
       <c r="E47" s="2" t="s">
         <v>84</v>
       </c>
@@ -7704,7 +7712,9 @@
       <c r="C48" t="s">
         <v>529</v>
       </c>
-      <c r="D48"/>
+      <c r="D48">
+        <v>1</v>
+      </c>
       <c r="E48" s="2" t="s">
         <v>84</v>
       </c>
@@ -7722,7 +7732,9 @@
       <c r="C49" t="s">
         <v>530</v>
       </c>
-      <c r="D49"/>
+      <c r="D49">
+        <v>1</v>
+      </c>
       <c r="E49" s="2" t="s">
         <v>84</v>
       </c>
@@ -7740,7 +7752,9 @@
       <c r="C50" t="s">
         <v>531</v>
       </c>
-      <c r="D50"/>
+      <c r="D50">
+        <v>1</v>
+      </c>
       <c r="E50" s="2" t="s">
         <v>84</v>
       </c>
@@ -7758,7 +7772,9 @@
       <c r="C51" t="s">
         <v>532</v>
       </c>
-      <c r="D51"/>
+      <c r="D51">
+        <v>1</v>
+      </c>
       <c r="E51" s="2" t="s">
         <v>84</v>
       </c>
@@ -7776,7 +7792,9 @@
       <c r="C52" s="53" t="s">
         <v>533</v>
       </c>
-      <c r="D52"/>
+      <c r="D52">
+        <v>1</v>
+      </c>
       <c r="E52" s="2" t="s">
         <v>84</v>
       </c>
@@ -7795,7 +7813,9 @@
       <c r="C53" s="53" t="s">
         <v>534</v>
       </c>
-      <c r="D53"/>
+      <c r="D53">
+        <v>1</v>
+      </c>
       <c r="E53" s="2" t="s">
         <v>84</v>
       </c>
@@ -7814,7 +7834,9 @@
       <c r="C54" s="53" t="s">
         <v>535</v>
       </c>
-      <c r="D54"/>
+      <c r="D54">
+        <v>1</v>
+      </c>
       <c r="E54" s="2" t="s">
         <v>84</v>
       </c>
